--- a/doc/digital marketing job ad campaigns.xlsx
+++ b/doc/digital marketing job ad campaigns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matan\Documents\GitHub\DE_Naya_Project\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96AB9F6D-B4CA-4047-A080-F891B76BB880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591EF9D4-470D-43C8-AC17-70E4C6F84C29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5EFB3251-6AFD-40C2-9C9F-DBA89E88C715}"/>
   </bookViews>
@@ -245,8 +245,8 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>11488</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="16" name="Ink 15">
@@ -265,7 +265,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="16" name="Ink 15">
@@ -310,8 +310,8 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>30448</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="56" name="Ink 55">
@@ -330,7 +330,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="56" name="Ink 55">
@@ -375,8 +375,8 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>188488</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="71" name="Ink 70">
@@ -395,7 +395,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="71" name="Ink 70">
@@ -440,8 +440,8 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>1048</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="72" name="Ink 71">
@@ -460,7 +460,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="72" name="Ink 71">
@@ -505,8 +505,8 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>160528</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="74" name="Ink 73">
@@ -525,7 +525,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="74" name="Ink 73">
@@ -570,8 +570,8 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>180688</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="75" name="Ink 74">
@@ -590,7 +590,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="75" name="Ink 74">
@@ -635,8 +635,8 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>58948</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="92" name="Ink 91">
@@ -655,7 +655,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="92" name="Ink 91">
@@ -700,8 +700,8 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>137128</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="96" name="Ink 95">
@@ -720,7 +720,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="96" name="Ink 95">
@@ -765,8 +765,8 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>175768</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="98" name="Ink 97">
@@ -785,7 +785,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="98" name="Ink 97">
@@ -830,8 +830,8 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>156208</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="110" name="Ink 109">
@@ -850,7 +850,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="110" name="Ink 109">
@@ -895,8 +895,8 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>140608</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="111" name="Ink 110">
@@ -915,7 +915,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="111" name="Ink 110">
@@ -960,8 +960,8 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>105808</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="119" name="Ink 118">
@@ -980,7 +980,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="119" name="Ink 118">
@@ -1025,8 +1025,8 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>15148</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="120" name="Ink 119">
@@ -1045,7 +1045,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="120" name="Ink 119">
@@ -1203,7 +1203,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0">251 43 24575,'-7'-1'0,"-1"0"0,2-1 0,-1 0 0,0 0 0,0 0 0,0-1 0,-8-5 0,-26-8 0,38 14 0,-1 1 0,0 1 0,1-1 0,-1 0 0,0 1 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 1 0,-1-1 0,0 1 0,-6 2 0,8-1 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,1 0 0,-1 0 0,1 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0 0 0,1-1 0,-1 1 0,1 4 0,-4 25 0,2 0 0,1 0 0,2 0 0,1 0 0,8 44 0,47 152 0,-8-44 0,-47-177-81,8 52 293,-10-54-328,1-1 1,-1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,-1 3 0,-4 2-6711</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="354.58">0 544 24575,'2'0'0,"6"0"0,9 0 0,8 0 0,9-2 0,4-1 0,1 0 0,-5 0 0,-6-1 0,-7 0-8191</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="895.75">279 516 24575,'36'5'0,"-33"-3"0,0-2 0,-1 1 0,1 0 0,0 0 0,-1-1 0,1 1 0,0-1 0,0 0 0,-1 0 0,1 0 0,0 0 0,0-1 0,-1 1 0,1-1 0,0 1 0,-1-1 0,1 0 0,-1 0 0,1 0 0,-1-1 0,1 1 0,-1 0 0,0-1 0,1 0 0,-1 1 0,0-1 0,0 0 0,2-3 0,1-2 0,-1 0 0,-1-1 0,1 1 0,-1-1 0,0 1 0,-1-1 0,0 0 0,0 0 0,-1 0 0,0 0 0,0 0 0,-1-14 0,0 16 0,0-1 0,0 0 0,-1 1 0,0-1 0,0 1 0,0-1 0,-1 1 0,0 0 0,0 0 0,-1-1 0,0 2 0,0-1 0,0 0 0,-1 0 0,1 1 0,-6-5 0,7 8 0,0 0 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 1 0,-1-1 0,1 1 0,-1-1 0,-4 1 0,5 1 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 1 0,1-1 0,-1 0 0,0 0 0,1 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-2 2 0,-1 4 0,1-1 0,-1 1 0,1-1 0,0 1 0,1 0 0,0 0 0,0 0 0,1 1 0,-1 12 0,3-4 0,0 0 0,0 0 0,2 0 0,0-1 0,1 1 0,0-1 0,2 0 0,0 0 0,0 0 0,2-1 0,0 0 0,0-1 0,2 1 0,-1-2 0,2 1 0,0-2 0,1 1 0,0-1 0,0-1 0,2 0 0,-1-1 0,1-1 0,1 0 0,-1-1 0,1 0 0,1-1 0,0-1 0,0 0 0,0-1 0,0-1 0,25 3 0,0-5-1365,-8-5-5461</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1531.67">863 126 24575,'-3'12'0,"1"0"0,0 0 0,0 0 0,1 0 0,1 1 0,0-1 0,1 0 0,0 0 0,1 0 0,5 20 0,5 11 0,28 63 0,-20-56 0,10 22 0,-16-41 0,-1 0 0,-2 0 0,-1 1 0,7 39 0,-17-68 0,0 0 0,1-1 0,-1 1 0,-1 0 0,1-1 0,0 1 0,0 0 0,-1-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,0 1 0,-1-1 0,1 1 0,0-1 0,-1 0 0,1 0 0,-1 0 0,0 0 0,-2 2 0,-1 0 0,1-1 0,-1 0 0,0 0 0,0 0 0,0-1 0,0 0 0,-1 0 0,1 0 0,-10 2 0,0-2 0,0 0 0,-1 0 0,1-1 0,0-1 0,-1-1 0,-24-4 0,34 4 0,1 0 0,-1-1 0,1 1 0,-1-1 0,1-1 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,1-1 0,-1 1 0,1-1 0,0 0 0,0-1 0,0 1 0,1-1 0,0 1 0,0-1 0,-4-8 0,4 6 0,1 1 0,0-1 0,1 0 0,0 0 0,0 0 0,0 1 0,1-1 0,0 0 0,0 0 0,1 0 0,-1 0 0,2 0 0,-1 0 0,1 0 0,0 1 0,5-12 0,-4 12 0,-1-1 0,1 1 0,1 0 0,-1 0 0,1 0 0,0 1 0,1 0 0,-1-1 0,1 1 0,0 1 0,0-1 0,1 1 0,-1 0 0,1 0 0,9-5 0,-7 6 0,0 1 0,1-1 0,-1 2 0,1-1 0,-1 1 0,1 0 0,0 1 0,-1 0 0,1 0 0,-1 1 0,1 0 0,8 2 0,-5-2-105,0 1 0,-1 0 0,0 1 0,0 0 0,0 1 0,0 0 0,0 1 0,-1 0 0,0 1 0,0 0 0,0 0 0,13 12 0,-13-5-6721</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1531.66">863 126 24575,'-3'12'0,"1"0"0,0 0 0,0 0 0,1 0 0,1 1 0,0-1 0,1 0 0,0 0 0,1 0 0,5 20 0,5 11 0,28 63 0,-20-56 0,10 22 0,-16-41 0,-1 0 0,-2 0 0,-1 1 0,7 39 0,-17-68 0,0 0 0,1-1 0,-1 1 0,-1 0 0,1-1 0,0 1 0,0 0 0,-1-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,0 1 0,-1-1 0,1 1 0,0-1 0,-1 0 0,1 0 0,-1 0 0,0 0 0,-2 2 0,-1 0 0,1-1 0,-1 0 0,0 0 0,0 0 0,0-1 0,0 0 0,-1 0 0,1 0 0,-10 2 0,0-2 0,0 0 0,-1 0 0,1-1 0,0-1 0,-1-1 0,-24-4 0,34 4 0,1 0 0,-1-1 0,1 1 0,-1-1 0,1-1 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,1-1 0,-1 1 0,1-1 0,0 0 0,0-1 0,0 1 0,1-1 0,0 1 0,0-1 0,-4-8 0,4 6 0,1 1 0,0-1 0,1 0 0,0 0 0,0 0 0,0 1 0,1-1 0,0 0 0,0 0 0,1 0 0,-1 0 0,2 0 0,-1 0 0,1 0 0,0 1 0,5-12 0,-4 12 0,-1-1 0,1 1 0,1 0 0,-1 0 0,1 0 0,0 1 0,1 0 0,-1-1 0,1 1 0,0 1 0,0-1 0,1 1 0,-1 0 0,1 0 0,9-5 0,-7 6 0,0 1 0,1-1 0,-1 2 0,1-1 0,-1 1 0,1 0 0,0 1 0,-1 0 0,1 0 0,-1 1 0,1 0 0,8 2 0,-5-2-105,0 1 0,-1 0 0,0 1 0,0 0 0,0 1 0,0 0 0,0 1 0,-1 0 0,0 1 0,0 0 0,0 0 0,13 12 0,-13-5-6721</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2105.91">1142 544 24575,'51'5'0,"-42"-3"0,0 0 0,0-1 0,0-1 0,0 1 0,0-2 0,15-1 0,-16 0 0,0 0 0,0-1 0,0 0 0,0-1 0,0 0 0,-1 0 0,0 0 0,0-1 0,0 0 0,0-1 0,-1 1 0,0-1 0,0 0 0,0-1 0,5-7 0,-8 10 0,0-1 0,0 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,-1-1 0,0 1 0,0 0 0,0-1 0,0 1 0,-1-1 0,0 0 0,0 1 0,-1-1 0,1 1 0,-1-1 0,0 1 0,-1 0 0,1-1 0,-1 1 0,0 0 0,-4-7 0,4 8 0,-1 0 0,0 0 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 1 0,0 0 0,0 0 0,-1 0 0,1 1 0,-1-1 0,1 1 0,-1 0 0,0 1 0,0-1 0,-6-1 0,8 3 0,0-1 0,-1 1 0,1-1 0,0 1 0,-1 0 0,1 0 0,0 0 0,-1 1 0,1-1 0,0 1 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 1 0,0-1 0,0 1 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,0 1 0,-1-1 0,1 1 0,-2 3 0,-2 6 0,0 0 0,1 0 0,0 0 0,1 1 0,1 0 0,0 0 0,0 0 0,1 0 0,1 0 0,0 1 0,1-1 0,1 0 0,2 18 0,-1-19 0,0-1 0,0 0 0,1 1 0,1-1 0,0 0 0,1-1 0,0 1 0,0-1 0,1 0 0,0 0 0,1-1 0,0 1 0,1-2 0,0 1 0,13 11 0,-5-9 0,-1-1 0,1 0 0,1-1 0,0-1 0,0-1 0,1 0 0,0-1 0,0-1 0,0-1 0,1-1 0,-1 0 0,1-1 0,0-1 0,-1-1 0,1 0 0,35-7 0,-49 6-91,1-1 0,-1 1 0,0-1 0,0 0 0,0-1 0,0 0 0,-1 1 0,1-1 0,-1-1 0,0 1 0,1-1 0,-2 0 0,1 1 0,4-6 0,6-13-6735</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2638.17">1657 168 24575,'109'99'0,"150"106"0,12 10 0,-233-179-1365,-28-25-5461</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3164.82">2326 126 24575,'-3'0'0,"0"5"0,-2 6 0,-3 6 0,-7 7 0,-8 14 0,-10 15 0,-8 12 0,-5 7 0,-4 6 0,3-4 0,5-7 0,9-10 0,9-15-8191</inkml:trace>
@@ -1262,7 +1262,7 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">1170 126 24575,'1'-1'0,"-1"-1"0,1 1 0,0-1 0,-1 1 0,1-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1 0 0,1-1 0,0 1 0,-1 0 0,1 0 0,-1 0 0,4 0 0,2 0 0,0 0 0,1 0 0,-1 0 0,0 1 0,12 3 0,-16-3 7,0 0-1,0 0 0,-1 1 0,1-1 1,-1 1-1,1 0 0,-1 0 1,0 0-1,1 0 0,-1 0 1,0 0-1,0 1 0,-1-1 0,1 1 1,0 0-1,-1-1 0,0 1 1,2 3-1,0 3-303,0 1 0,0-1 0,-1 1 0,1 12 0,-2-8-6529</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1649.71">1324 1 24575,'0'2'0,"0"4"0,0 2 0,0 3 0,2 2 0,1 1 0,0 0 0,0 1 0,-1-1 0,1 1 0,1-1 0,-1 0 0,-1 0 0,0-2-8191</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2280.68">1170 140 24575,'0'3'0,"0"2"0,0 6 0,0 3 0,0 2 0,0 0 0,0 2 0,0 1 0,0-1 0,0-1 0,0-3-8191</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2280.67">1170 140 24575,'0'3'0,"0"2"0,0 6 0,0 3 0,0 2 0,0 0 0,0 2 0,0 1 0,0-1 0,0-1 0,0-3-8191</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3098.01">906 168 24575,'0'-1'0,"1"-1"0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0 0 0,0-1 0,1 1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 1 0,0-1 0,-1 1 0,4-1 0,0-1 0,0 1 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 1 0,10 0 0,-12 2 7,1-1 0,0 1 0,0 0 0,-1 0 0,1 0 1,-1 0-1,0 1 0,1 0 0,-1-1 0,0 1 0,-1 0 0,1 0 0,0 1 0,-1-1 0,0 0 0,4 7 0,-1 0-255,-1 0 1,0-1-1,0 2 1,-1-1-1,3 15 1,-4-12-6579</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3582.05">934 182 24575,'0'2'0,"0"4"0,0 5 0,0 3 0,0 2 0,0 2 0,0 4 0,0 2 0,0 0 0,2 0 0,1-2 0,0-6 0,0-6-8191</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4186.03">808 182 24575,'0'2'0,"0"6"0,0 4 0,0 2 0,0 1 0,0 1 0,3-3 0,2-4 0,4-2 0,2-4 0,-1-1-8191</inkml:trace>
@@ -1313,7 +1313,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18155.09">1197 2715 24575,'5'0'0,"6"-2"0,11-4 0,9-2 0,1-1 0,-2 2 0,-5-1 0,-5 2-8191</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18900.66">209 2757 24575,'2'0'0,"4"2"0,2 4 0,3 5 0,2 3 0,-2 1 0,-2 2 0,-1 1 0,-1 1 0,0 1 0,-1 5 0,1 0 0,2 4 0,-1-2 0,3-5 0,-1-6-8191</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="19690.7">529 2813 24575,'-1'-1'0,"-1"1"0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 1 0,0-1 0,-1 0 0,1 1 0,0-1 0,-1 1 0,1-1 0,0 1 0,0 0 0,0 0 0,-1-1 0,1 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 1 0,0-1 0,0 0 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 1 0,-1-1 0,1 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,1-1 0,-1 1 0,0-1 0,2 2 0,0 4 0,0-1 0,1 0 0,0 0 0,0 0 0,0 0 0,1-1 0,0 1 0,0-1 0,5 5 0,-7-7 0,0-1 0,0 0 0,0 0 0,1 0 0,-1-1 0,0 1 0,1 0 0,-1-1 0,1 0 0,-1 1 0,1-1 0,0 0 0,0 0 0,-1-1 0,1 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 0 0,-1 0 0,1 0 0,0-1 0,0 1 0,0-1 0,0 0 0,-1 1 0,1-1 0,0-1 0,3-1 0,-3 1 0,1-1 0,-1 0 0,0 0 0,0 0 0,0-1 0,0 1 0,-1-1 0,0 0 0,1 0 0,-1 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0-1 0,0 1 0,0 0 0,-1-6 0,1-2 0,0 1 0,0 0 0,0-1 0,-1 1 0,-1 0 0,0 0 0,-1 0 0,-2-12 0,3 22 3,1 0-1,0 0 1,0 1-1,-1-1 0,1 0 1,0 0-1,-1 1 1,1-1-1,-1 0 1,1 1-1,-1-1 1,1 0-1,-1 1 0,1-1 1,-1 1-1,0-1 1,1 1-1,-1-1 1,0 1-1,1 0 1,-1-1-1,0 1 0,1 0 1,-1-1-1,0 1 1,0 0-1,0 0 1,1 0-1,-1 0 1,0 0-1,0 0 0,0 0 1,1 0-1,-1 0 1,0 0-1,0 0 1,0 0-1,1 1 1,-1-1-1,0 0 0,0 0 1,1 1-1,-1-1 1,0 1-1,1-1 1,-1 1-1,0-1 1,0 2-1,-3 0-167,1 1 0,1 0 0,-1 0 0,0 0 0,1 1 0,-1-1 0,1 1 0,-2 3 0,-1 5-6661</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="20402.67">766 2757 24575,'-2'0'0,"0"0"0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 1 0,0-1 0,1 0 0,0 1 0,-1-1 0,1 1 0,0-1 0,0 1 0,-2 2 0,1 1 0,0 0 0,0 0 0,0 0 0,0 0 0,1 1 0,0-1 0,0 0 0,0 11 0,0-8 0,1-1 0,0 1 0,1 0 0,0-1 0,0 1 0,0-1 0,1 1 0,0-1 0,1 0 0,0 0 0,0 0 0,0 0 0,8 11 0,-10-16 0,1 0 0,0 1 0,0-1 0,0 0 0,1 0 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1-1 0,1 0 0,0 1 0,-1-1 0,1 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,0 0 0,3 0 0,-3-2 0,1 1 0,-1 0 0,0-1 0,-1 1 0,1-1 0,0 0 0,0 0 0,-1 0 0,1-1 0,-1 1 0,0 0 0,0-1 0,1 0 0,-2 1 0,1-1 0,2-4 0,4-9 0,-1 0 0,-1-1 0,0 1 0,-1-1 0,-1 0 0,2-20 0,-4 26 20,-1 0 0,-1 0 0,1 1 0,-2-1 0,-1-12 0,2 21-66,0 0-1,-1-1 1,1 1-1,-1 0 1,0 0 0,0 0-1,1 0 1,-1 0-1,-1 1 1,1-1 0,0 0-1,0 0 1,-1 1-1,1-1 1,-1 0-1,1 1 1,-1 0 0,0-1-1,1 1 1,-1 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0-1,0 1 1,0-1 0,0 1-1,0-1 1,0 1-1,-4 0 1,-7-1-6780</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="20402.66">766 2757 24575,'-2'0'0,"0"0"0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 1 0,0-1 0,1 0 0,0 1 0,-1-1 0,1 1 0,0-1 0,0 1 0,-2 2 0,1 1 0,0 0 0,0 0 0,0 0 0,0 0 0,1 1 0,0-1 0,0 0 0,0 11 0,0-8 0,1-1 0,0 1 0,1 0 0,0-1 0,0 1 0,0-1 0,1 1 0,0-1 0,1 0 0,0 0 0,0 0 0,0 0 0,8 11 0,-10-16 0,1 0 0,0 1 0,0-1 0,0 0 0,1 0 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1-1 0,1 0 0,0 1 0,-1-1 0,1 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,0 0 0,3 0 0,-3-2 0,1 1 0,-1 0 0,0-1 0,-1 1 0,1-1 0,0 0 0,0 0 0,-1 0 0,1-1 0,-1 1 0,0 0 0,0-1 0,1 0 0,-2 1 0,1-1 0,2-4 0,4-9 0,-1 0 0,-1-1 0,0 1 0,-1-1 0,-1 0 0,2-20 0,-4 26 20,-1 0 0,-1 0 0,1 1 0,-2-1 0,-1-12 0,2 21-66,0 0-1,-1-1 1,1 1-1,-1 0 1,0 0 0,0 0-1,1 0 1,-1 0-1,-1 1 1,1-1 0,0 0-1,0 0 1,-1 1-1,1-1 1,-1 0-1,1 1 1,-1 0 0,0-1-1,1 1 1,-1 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0-1,0 1 1,0-1 0,0 1-1,0-1 1,0 1-1,-4 0 1,-7-1-6780</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="21209.54">1142 1406 24575,'4'0'0,"10"0"0,8 0 0,7 0 0,1 0 0,0 0 0,-5 0 0,-5 0-8191</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="22285.16">0 1392 24575,'34'-12'0,"-19"6"0,0 1 0,0 0 0,0 1 0,0 1 0,1 0 0,26-1 0,-41 5 0,1-1 0,0 1 0,0-1 0,-1 1 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 1 0,1-1 0,-1 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,-1-1 0,1 1 0,0 0 0,-1 0 0,1-1 0,-1 1 0,0 0 0,0 0 0,0 0 0,1 0 0,-2-1 0,1 1 0,0 2 0,-6 66 0,2-54 0,0-1 0,-1 0 0,-1 0 0,-1 0 0,-9 16 0,-15 37 0,30-67 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1-1 0,1 1 0,0 0 0,-1 0 0,1-1 0,0 1 0,-1 0 0,1-1 0,0 1 0,0-1 0,0 1 0,0-1 0,-1 1 0,1-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,2 0 0,52 1 0,-44-2 0,9 1-106,56-5-1153,-60 1-5567</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="22846.06">529 1490 24575,'-3'0'0,"-1"0"0,1 0 0,-1 1 0,1-1 0,-1 1 0,1 0 0,0 0 0,0 1 0,-1-1 0,1 1 0,0-1 0,0 1 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 1 0,-1-1 0,1 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,1 0 0,-1 1 0,1-1 0,0 0 0,0 0 0,0 1 0,1-1 0,-1 1 0,1-1 0,0 1 0,-1-1 0,2 0 0,-1 1 0,0-1 0,1 1 0,-1-1 0,1 1 0,0-1 0,0 0 0,0 0 0,1 1 0,-1-1 0,1 0 0,0 0 0,0 0 0,0-1 0,0 1 0,4 4 0,3 0 0,0-1 0,0 1 0,1-1 0,0-1 0,0 0 0,0-1 0,1 1 0,0-2 0,0 0 0,-1 0 0,2-1 0,-1 0 0,0-1 0,0 0 0,0-1 0,1 0 0,14-3 0,-22 2 0,-1-1 0,1 0 0,0-1 0,-1 1 0,1 0 0,-1-1 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1-1 0,-1 1 0,0-1 0,0 0 0,0 0 0,0 1 0,-1-1 0,1 0 0,-1 0 0,0-1 0,0 1 0,0-7 0,1-6 0,0 0 0,-1 1 0,-1-1 0,-2-29 0,1 44-44,1-1 0,-1 1 0,1-1 0,-1 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,-1-1 0,1 1 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0-1,0 1 1,0-1 0,-1 0 0,1 1 0,0 0 0,-1-1 0,1 1 0,0 0 0,-1 0 0,0 1 0,1-1 0,-1 0 0,-4 0 0,-9 0-6782</inkml:trace>
@@ -1321,7 +1321,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="24050.97">543 1504 24575,'0'-3'0,"3"0"0,2-2 0,8-1 0,9-3 0,5-3 0,1-2 0,-2 1 0,-6 4-8191</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="25148.09">1267 3495 24575,'2'0'0,"4"0"0,5 2 0,5 1 0,5 1 0,2-2 0,-2 0 0,-1-1 0,-5-3 0,-4-1 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="26184.12">626 3481 24575,'3'0'0,"5"-2"0,6-4 0,5 0 0,5-2 0,0 1 0,-2-1 0,-1 0 0,-3 3 0,-4-1 0,-7 1 0,-17 3 0,-6 2-8191</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="26745.63">585 3453 24575,'3'6'0,"0"0"0,0-1 0,0 1 0,-1 0 0,0 1 0,0-1 0,1 7 0,-2-8 0,0-1 0,1-1 0,-1 0 0,0 1 0,1-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1-1 0,-1 1 0,1-1 0,0 1 0,3 1 0,47 23 0,-45-24 0,-1 1 0,1-1 0,0 1 0,-1 0 0,0 1 0,0 0 0,11 10 0,-17-14 0,-1-1 0,1 1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1-1 0,0 1 0,1 0 0,-1 0 0,0-1 0,0 1 0,1 0 0,-1-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,-1 1 0,-53 21 0,49-20 0,-23 6-682,-45 8-1,51-13-6143</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="26745.62">585 3453 24575,'3'6'0,"0"0"0,0-1 0,0 1 0,-1 0 0,0 1 0,0-1 0,1 7 0,-2-8 0,0-1 0,1-1 0,-1 0 0,0 1 0,1-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1-1 0,-1 1 0,1-1 0,0 1 0,3 1 0,47 23 0,-45-24 0,-1 1 0,1-1 0,0 1 0,-1 0 0,0 1 0,0 0 0,11 10 0,-17-14 0,-1-1 0,1 1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1-1 0,0 1 0,1 0 0,-1 0 0,0-1 0,0 1 0,1 0 0,-1-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,-1 1 0,-53 21 0,49-20 0,-23 6-682,-45 8-1,51-13-6143</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="27593.62">975 3579 24575,'-20'-1'0,"15"0"0,1 1 0,-1 0 0,0 0 0,1 0 0,-1 1 0,1-1 0,-9 3 0,12-2 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 1 0,1-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,1-1 0,-1 1 0,0 0 0,1-1 0,-1 1 0,1 0 0,-1-1 0,1 1 0,0 0 0,0-1 0,0 1 0,0 2 0,-1 2 0,1-1 0,0 1 0,0-1 0,1 1 0,-1-1 0,1 1 0,1-1 0,-1 1 0,1-1 0,-1 0 0,1 0 0,1 0 0,-1 0 0,1 0 0,3 5 0,-3-8 0,-1 1 0,1-1 0,0 0 0,-1 0 0,1 0 0,0 0 0,1 0 0,-1-1 0,0 1 0,0-1 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1-1 0,1 1 0,-1-1 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1-1 0,1 0 0,5-1 0,-5 0 0,0 1 0,1-1 0,-1 0 0,0 0 0,0-1 0,0 1 0,-1-1 0,1 0 0,-1 0 0,1 0 0,-1-1 0,0 1 0,0-1 0,0 1 0,-1-1 0,1 0 0,-1 0 0,0 0 0,0-1 0,-1 1 0,1 0 0,-1-1 0,1-6 0,0 3 0,0-1 0,-1 0 0,0 0 0,0 0 0,-1 0 0,0 0 0,-1 0 0,0 0 0,0 1 0,-1-1 0,-4-11 0,6 19 0,-1-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1 1 0,0-1 0,1 0 0,-1 1 0,0-1 0,1 1 0,-1 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,0 0 0,0 1 0,1-1 0,-1 0 0,0 1 0,1-1 0,-1 1 0,0-1 0,1 1 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,1 0 0,0 1 0,-1-1 0,1 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 1 0,1 0 0,-1-1 0,0 1 0,1 0 0,-1 1 0,-1 39-1365,5-21-5461</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="52464.38">2841 4052 24575,'0'3'0,"0"2"0,0 6 0,2 12 0,4 8 0,0 0 0,-1 0 0,-1 0 0,-1-6-8191</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="53594.71">2743 4540 24575,'5'-1'0,"0"1"0,-1-1 0,1 0 0,-1 0 0,1 0 0,-1-1 0,1 1 0,-1-1 0,0 0 0,0 0 0,0-1 0,0 1 0,0-1 0,0 0 0,3-4 0,-1 1 0,0 0 0,0-1 0,-1 0 0,0 0 0,0 0 0,7-15 0,-12 21 0,0 1 0,0 0 0,0 0 0,1 0 0,-1 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 1 0,0-1 0,8 20 0,2 24 0,1 29-455,-3 1 0,-2 113 0,-6-171-6371</inkml:trace>
@@ -1816,7 +1816,7 @@
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/doc/digital marketing job ad campaigns.xlsx
+++ b/doc/digital marketing job ad campaigns.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matan\Documents\GitHub\DE_Naya_Project\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591EF9D4-470D-43C8-AC17-70E4C6F84C29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC641B8E-EBBC-40A8-96BC-D88D6905B302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5EFB3251-6AFD-40C2-9C9F-DBA89E88C715}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5EFB3251-6AFD-40C2-9C9F-DBA89E88C715}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -192,7 +192,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -211,6 +211,7 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -373,7 +374,7 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>251826</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>188488</xdr:rowOff>
+      <xdr:rowOff>182138</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
       <mc:Choice Requires="xdr14">
@@ -1103,13 +1104,13 @@
       <inkml:brushProperty name="height" value="0.035" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">401 215 24575,'-3'-3'0,"1"0"0,-1 1 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 1 0,1-1 0,-1 1 0,-5-2 0,-9-1 0,1 0 0,-1 1 0,0 1 0,1 0 0,-1 1 0,0 2 0,0-1 0,0 2 0,0 0 0,1 2 0,-1 0 0,1 0 0,0 2 0,-26 11 0,39-14 0,-1-1 0,1 0 0,0 1 0,1 0 0,-1 0 0,0 0 0,1 1 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,1 0 0,0 0 0,0 0 0,-2 7 0,1-3 0,1 1 0,1 0 0,-1 0 0,2 0 0,-1 0 0,1 0 0,0 0 0,2 10 0,5 14 0,0 0 0,2 0 0,21 48 0,-27-72 0,3 7 0,1-1 0,0 1 0,0-1 0,2-1 0,0 0 0,13 16 0,-20-28 0,0 1 0,0-1 0,0 1 0,1-1 0,-1 0 0,1 0 0,0-1 0,0 1 0,-1 0 0,1-1 0,0 0 0,0 1 0,1-1 0,-1 0 0,0-1 0,0 1 0,0 0 0,1-1 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1-1 0,0 1 0,0-1 0,1 1 0,-1-1 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,2-3 0,70-72-1365,-68 70-5461</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="736.69">484 619 24575,'3'-1'0,"-1"1"0,1-1 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1-1 0,-1 1 0,0 0 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,-1 0 0,1-1 0,-1 1 0,0 0 0,1 0 0,-1-1 0,1-3 0,19-55 0,-11 10 0,-4 0 0,-1 0 0,-3-1 0,-2 0 0,-8-66 0,7 109 0,1-4 0,-2 0 0,1 0 0,-2 0 0,1 0 0,-2 1 0,0-1 0,-9-19 0,13 32 0,0-1 0,0 1 0,-1-1 0,1 1 0,0-1 0,0 0 0,-1 1 0,1-1 0,0 1 0,-1-1 0,1 1 0,0 0 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1-1 0,1 1 0,-1 0 0,0 0 0,1 0 0,-1-1 0,1 1 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,0 1 0,1-1 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 1 0,1-1 0,0 0 0,-1 1 0,1-1 0,-1 1 0,1-1 0,0 1 0,-1-1 0,1 1 0,0-1 0,0 1 0,-1 0 0,1-1 0,0 1 0,0-1 0,0 1 0,0 0 0,-13 43 0,5 13 0,2 0 0,3 0 0,2 0 0,2 1 0,3-1 0,19 89 0,-21-134 0,0 1 0,1-2 0,1 1 0,0 0 0,0-1 0,1 0 0,1 0 0,0 0 0,0 0 0,1-1 0,15 16 0,-21-25-65,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1-1 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,1 0 0,2-1 0,9-4-6761</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1104.74">735 493 24575,'0'5'0,"0"8"0,3 10 0,2 5 0,1 3 0,2 0 0,-1 1 0,-1-4 0,-2-15 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1337.7">749 271 24575,'0'2'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1805.4">958 479 24575,'-3'1'0,"0"0"0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 1 0,1-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 1 0,1-1 0,-1 0 0,1 1 0,0-1 0,0 1 0,-1-1 0,0 5 0,-2 5 0,0 0 0,0 0 0,-3 22 0,6-28 0,0 1 0,1-1 0,0 0 0,0 0 0,0 1 0,1-1 0,0 0 0,0 0 0,0 0 0,1 0 0,0 0 0,0 0 0,1 0 0,-1-1 0,7 9 0,-7-11 0,1 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0-1 0,0 0 0,1 0 0,-1 0 0,1-1 0,-1 1 0,1-1 0,0 0 0,0 0 0,0 0 0,0 0 0,-1-1 0,1 1 0,0-1 0,0 0 0,0 0 0,0-1 0,0 1 0,0-1 0,7-2 0,-9 2-105,1 1 0,-1-1 0,0 0 0,1 0 0,-1 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 0 0,2-1 0,5-9-6721</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2145.56">1042 326 24575,'4'22'0,"5"18"0,2 14 0,0 4 0,0 5 0,1-6 0,-2-7 0,-2-10 0,-3-9 0,-3-11-8191</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2747.73">1223 535 24575,'-37'31'0,"29"-26"0,-1 1 0,2 1 0,-1-1 0,1 1 0,0 1 0,0-1 0,1 1 0,-8 12 0,14-18 0,0 0 0,-1 0 0,1-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,1 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,1 1 0,-1-1 0,0 0 0,1 0 0,-1 1 0,1-1 0,-1 0 0,4 1 0,57 33 0,-49-29 0,27 15-1365,-25-12-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">398 205 24575,'-3'-3'0,"1"0"0,-1 1 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 1 0,-1 0 0,1-1 0,-1 1 0,-5-2 0,-9-1 0,1 0 0,0 1 0,-1 2 0,1-1 0,-1 1 0,0 2 0,0-1 0,0 2 0,1-1 0,0 3 0,-1 0 0,1 0 0,0 2 0,-26 10 0,40-13 0,-2-1 0,1-1 0,0 2 0,1 0 0,-1 0 0,0 0 0,1 1 0,0-2 0,0 2 0,0 0 0,0 0 0,0 0 0,1 0 0,0-1 0,0 1 0,-2 7 0,1-4 0,1 2 0,1-1 0,-1 1 0,2-1 0,-1 1 0,1 0 0,0-1 0,2 10 0,5 14 0,0-1 0,2 0 0,21 46 0,-27-68 0,2 6 0,2 0 0,0 0 0,0-1 0,2-1 0,0 1 0,13 14 0,-20-26 0,0 1 0,0-1 0,0 1 0,1-1 0,-1 0 0,1-1 0,0 0 0,0 1 0,-1 0 0,1-1 0,0 0 0,0 1 0,1-1 0,-1 0 0,0-1 0,0 1 0,0 0 0,1-1 0,-1 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0-1 0,1 1 0,-1-1 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,-1 0 0,1 0 0,0 1 0,-1-1 0,1 0 0,2-3 0,70-68-1365,-69 66-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="736.69">480 589 24575,'3'-1'0,"-1"1"0,1-1 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1-1 0,-1 1 0,0 0 0,0 0 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,-1 0 0,1-1 0,-1 1 0,0 0 0,1 0 0,-1 0 0,1-4 0,19-52 0,-11 9 0,-4 1 0,-2-1 0,-2 0 0,-2-1 0,-7-62 0,6 104 0,1-5 0,-2 1 0,1-1 0,-2 1 0,1 0 0,-2 0 0,0 0 0,-9-19 0,13 31 0,0 0 0,0 0 0,-1-1 0,1 1 0,0-1 0,0 0 0,-1 1 0,1-1 0,0 1 0,-1-1 0,1 1 0,0 0 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1-1 0,1 1 0,-1 0 0,0 0 0,1 0 0,-1-1 0,1 1 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,0 1 0,1-1 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 1 0,1-1 0,0 0 0,-1 1 0,1-1 0,-1 1 0,1-1 0,0 1 0,-1-1 0,1 1 0,0-1 0,0 1 0,-1 0 0,1-1 0,0 0 0,0 0 0,0 1 0,0 0 0,-13 41 0,5 12 0,2 1 0,3-1 0,2 0 0,2 1 0,3 0 0,19 83 0,-21-126 0,0 0 0,1-1 0,1 0 0,0 1 0,0-2 0,1 1 0,1-1 0,0 0 0,0 1 0,1-2 0,14 16 0,-20-24-65,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1-1 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,1 0 0,2-1 0,9-4-6761</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1104.74">729 469 24575,'0'5'0,"0"7"0,3 10 0,2 5 0,1 2 0,2 1 0,-1 0 0,-1-3 0,-2-15 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1337.7">743 258 24575,'0'2'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1805.4">950 456 24575,'-3'1'0,"0"0"0,2 0 0,-2 0 0,1-1 0,-1 1 0,1 0 0,-1 1 0,1-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,1 1 0,0-1 0,0 1 0,-1-1 0,0 4 0,-2 6 0,0-1 0,0 1 0,-3 20 0,6-26 0,0 0 0,1 0 0,0 0 0,0 0 0,0 0 0,1 0 0,0 0 0,0-1 0,0 1 0,1 0 0,0-1 0,0 1 0,1 0 0,-1-1 0,7 8 0,-7-10 0,1 0 0,0 0 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,1 0 0,-1 0 0,1-1 0,-1 1 0,0-1 0,1 0 0,0-1 0,0 1 0,0 0 0,-1-1 0,1 1 0,0-1 0,0 0 0,0 0 0,0-1 0,0 1 0,0-1 0,7-1 0,-9 1-105,1 1 0,-1-1 0,0 0 0,1 0 0,-1 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 0 0,2-1 0,5-8-6721</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2145.56">1034 310 24575,'4'21'0,"5"17"0,2 14 0,0 3 0,-1 5 0,2-6 0,-2-7 0,-2-8 0,-3-10 0,-3-10-8191</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2747.73">1213 509 24575,'-36'30'0,"28"-26"0,-1 2 0,2 1 0,-1-2 0,1 2 0,0 1 0,0-2 0,1 2 0,-8 11 0,14-17 0,0 0 0,-1 0 0,1-1 0,0 0 0,0 1 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,1-1 0,0 0 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,1 1 0,-1-1 0,0 0 0,1 0 0,-1 1 0,1-1 0,-1 0 0,4 0 0,57 33 0,-50-28 0,28 13-1365,-25-10-5461</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -1136,17 +1137,17 @@
       <inkml:brushProperty name="height" value="0.035" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">2786 56 24575,'-367'-2'0,"-380"5"0,258 11 0,298 0 0,-43 0 0,171-10 0,-1 2 0,-85 20 0,3-1 0,96-20 0,33-4 0,-1 1 0,1 0 0,0 1 0,0 0 0,0 2 0,0 0 0,-18 9 0,28-10 0,0 1 0,1 0 0,0 1 0,0 0 0,0 0 0,1 0 0,-1 0 0,2 1 0,-8 12 0,-31 71 0,37-77 0,3-6 0,1-1 0,-1 1 0,1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,1 0 0,0 0 0,0 1 0,0-1 0,1 0 0,0 0 0,0 0 0,4 13 0,-1-12 0,0 1 0,1-1 0,0 0 0,0-1 0,0 1 0,1-1 0,1 0 0,-1-1 0,1 1 0,0-1 0,15 10 0,31 17 0,0-1 0,3-3 0,108 40 0,187 35 0,-233-78 0,2-5 0,1-6 0,0-5 0,0-5 0,1-5 0,160-22 0,315-10 0,-11 2 0,-566 27 0,1-1 0,0-1 0,-1 0 0,0-2 0,0 0 0,-1-1 0,0-1 0,0-1 0,25-17 0,-34 20 0,-1-1 0,1 0 0,-1 0 0,0-1 0,-1 0 0,0 0 0,0-1 0,-1 0 0,0 0 0,-1-1 0,0 0 0,-1 0 0,0 0 0,-1-1 0,0 0 0,-1 0 0,2-15 0,0-8 0,-1 7 0,-1-1 0,-1 1 0,-1-1 0,-6-52 0,4 75 0,-1 0 0,-1 0 0,1 0 0,-1 1 0,0-1 0,-1 1 0,1-1 0,-1 1 0,0 0 0,-1 0 0,1 1 0,-1-1 0,0 1 0,0 0 0,-10-6 0,-10-5 0,0 1 0,-32-12 0,48 22 0,-483-168 0,435 157-1365,14 5-5461</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1536.57">2884 433 24575,'229'484'0,"-118"-244"0,-24-53-540,321 711-857,-70 34 1342,-305-799 671,33 266 1,-59-359-355,1 0 1,19 53-1,6 24-290,49 187 28,-38-172-1365,-39-110-5461</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2143.14">4123 4401 24575,'2'7'0,"-1"-1"0,1 1 0,1 0 0,-1-1 0,1 0 0,0 1 0,1-1 0,-1 0 0,8 9 0,2 5 0,0 1 0,2 5 0,1-1 0,25 31 0,-37-51 0,0 0 0,1 0 0,-1 0 0,1-1 0,0 0 0,1 0 0,-1 0 0,0-1 0,1 1 0,0-1 0,0-1 0,0 1 0,0-1 0,0 0 0,1 0 0,11 1 0,-14-4 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0-1 0,0 0 0,-1-1 0,1 1 0,-1 0 0,1-1 0,-1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0-1 0,-1 1 0,0-1 0,0 0 0,0 1 0,2-7 0,5-11 0,-1-1 0,-1 0 0,5-31 0,-9 39 0,9-50-1365,-9 40-5461</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3001.47">2995 4972 24575,'78'-82'0,"-4"-4"0,82-123 0,-156 208 0,1 1 0,-1-1 0,1 0 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 1 0,0-1 0,-1 0 0,1 1 0,0-1 0,0 1 0,-1-1 0,1 1 0,0 0 0,0-1 0,0 1 0,-1 0 0,1-1 0,0 1 0,0 0 0,1 0 0,-1 0 0,0 1 0,0-1 0,-1 1 0,1 0 0,-1-1 0,1 1 0,0 0 0,-1 0 0,0-1 0,1 1 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1-1 0,0 1 0,0 0 0,0 2 0,3 61 0,-4-51 0,0 233-1365,0-203-5461</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3344.04">3176 4833 24575,'3'0'0,"4"0"0,10 0 0,13-2 0,20-4 0,18-5 0,6-1 0,0-2 0,-11-3 0,-11 3 0,-16 3-8191</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4135.65">3580 4596 24575,'3'55'0,"3"0"0,18 79 0,-17-99 0,-4-20 0,-3-9 0,1 1 0,0-1 0,0 1 0,1-1 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,2 0 0,-1-1 0,1 1 0,4 4 0,-7-9 0,0-1 0,1 1 0,-1-1 0,0 0 0,1 1 0,-1-1 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1-1 0,-1 1 0,0 0 0,0-1 0,1 1 0,-1-1 0,0 1 0,0-1 0,1 0 0,-1 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1-2 0,29-38 0,-27 35 0,7-12 0,-8 11 0,2 0 0,-1 1 0,1-1 0,-1 1 0,2 0 0,5-6 0,-10 11 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 1 0,0-1 0,2 0 0,-1 1 0,-1 0 0,1 0 0,0 1 0,0-1 0,-1 0 0,1 1 0,-1-1 0,1 1 0,-1-1 0,0 1 0,1 0 0,-1-1 0,0 1 0,1 3 0,8 14 0,-8-14 0,0 0 0,1 0 0,0-1 0,0 1 0,0-1 0,0 1 0,6 5 0,-7-9 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0-1 0,0 0 0,1 1 0,-1-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,2-3 0,3 0 0,1-1 0,-2 0 0,1-1 0,0 0 0,-1 0 0,9-9 0,10-9 0,-25 23 0,1-1 0,0 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,0 0 0,-1-1 0,1 1 0,0 0 0,-1 0 0,1-1 0,0 1 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 1 0,-1-1 0,2 1 0,11 18 0,1 44 0,-11-43 0,-3-19-37,0 0 0,0 1 1,0-1-1,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 1,1 0-1,0 0 0,-1-1 0,1 1 0,0 0 0,0 0 0,0-1 0,-1 1 0,1 0 0,0-1 1,0 1-1,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,1 0 0,-1 0 0,0 1 0,0-1 1,0 0-1,0 0 0,0 0 0,2 0 0,16-4-6789</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4690.89">4263 4847 24575,'-4'1'0,"0"0"0,0 0 0,0 0 0,0 1 0,1-1 0,-1 1 0,1 0 0,-1 1 0,1-1 0,0 0 0,0 1 0,0 0 0,0-1 0,0 1 0,1 0 0,-1 1 0,-3 5 0,4-5 0,-1-1 0,1 1 0,-1 0 0,1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 1 0,0-1 0,1 0 0,-1 1 0,1-1 0,1 6 0,0-9 0,-1-1 0,1 1 0,-1 0 0,1 0 0,0-1 0,0 1 0,-1 0 0,1-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,-1 0 0,1 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,0 1 0,-1-1 0,1 0 0,1 0 0,37-24 0,-15 5 0,-1-1 0,37-44 0,-60 64 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,1 1 0,-1 0 0,0-1 0,0 1 0,0 0 0,0-1 0,3 1 0,-4 0 0,1 1 0,0-1 0,0 1 0,-1 0 0,1-1 0,-1 1 0,1 0 0,0-1 0,-1 1 0,1 0 0,-1-1 0,1 1 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0-1 0,0 1 0,1 0 0,-1 0 0,0 2 0,1 63 0,-2-55 0,1-1-119,0 31 372,0-41-285,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 1,0 1-1,0 0 0,0-1 0,1 1 0,-1 0 0,0-1 0,0 1 0,1-1 0,-1 1 1,0-1-1,1 1 0,-1-1 0,1 1 0,-1-1 0,0 1 0,1-1 0,-1 1 0,1-1 1,-1 1-1,1-1 0,0 0 0,-1 1 0,1-1 0,-1 0 0,1 0 0,0 1 0,-1-1 1,1 0-1,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 1,0 0-1,-1 0 0,1 0 0,0-1 0,17-8-6794</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5173.78">4597 4735 24575,'39'0'0,"28"0"0,85 10 0,-150-11 0,0 1 0,0 0 0,1 1 0,-1-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 1 0,-1-1 0,1 0 0,-1 1 0,1-1 0,-1 1 0,0 0 0,1-1 0,-1 1 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,-1 0 0,1 0 0,-1 0 0,-1 3 0,-3 10 0,-1 0 0,-1 0 0,-1 0 0,-16 24 0,12-20 0,-29 44 0,21-35 0,2 1 0,1 1 0,-27 64 0,43-92-6,0 0 0,1 1 0,-1-1 0,0 0 0,1 1 0,0-1 0,-1 1 0,1-1-1,0 1 1,0-1 0,1 4 0,-1-6 11,0 0 0,0 1 0,1-1 0,-1 0 0,0 1 1,0-1-1,1 0 0,-1 1 0,0-1 0,0 0 0,1 1 0,-1-1 0,0 0 0,1 0 0,-1 1 0,1-1 0,-1 0 0,0 0 0,1 0 0,-1 1 0,1-1 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 1,0 0-1,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1-1 0,4-1-189,1 0-1,-1-1 1,0 0 0,0 0 0,-1 0-1,1-1 1,6-6 0,20-19-6642</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5519.07">4722 4972 24575,'2'0'0,"6"0"0,6 0 0,6 0 0,3 0 0,-1-2 0,0-1 0,-2-3 0,1-2 0,-1 0 0,-3 0 0,-6 0-8191</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5982.66">5028 4888 24575,'-2'1'0,"0"-1"0,0 1 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,0 0 0,0 0 0,0 0 0,0-1 0,-1 4 0,-15 43 0,15-39 0,1 0 0,0 0 0,0 1 0,1-1 0,0 1 0,1-1 0,1 11 0,-1-18 0,-1 0 0,1-1 0,-1 1 0,1-1 0,-1 1 0,1 0 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,1 0 0,-1 1 0,0-1 0,1 0 0,1 1 0,-1-1 0,0-1 0,1 1 0,-1-1 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,1-1 0,-1 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 0 0,3-1 0,-2 0 5,0 0-1,0 0 0,-1 0 0,1-1 1,0 1-1,-1-1 0,0 1 0,1-1 1,-1 0-1,0 0 0,0 0 0,-1 0 1,1 0-1,0 0 0,-1 0 0,0-1 1,0 1-1,0-1 0,0-3 1,2-9-237,-1 1 1,0-32 0,-2 31-526,1-27-6069</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6873.19">5168 4763 24575,'12'114'0,"-10"142"0,3-231 0,5-37 0,6-42 0,-4-26 0,-11 62 0,1 0 0,1 0 0,0 0 0,2 0 0,0 1 0,0 0 0,2-1 0,0 2 0,12-20 0,-19 36 0,0-1 0,1 1 0,-1-1 0,0 1 0,1-1 0,-1 1 0,0 0 0,1-1 0,-1 1 0,1-1 0,-1 1 0,1 0 0,-1-1 0,1 1 0,-1 0 0,1 0 0,-1 0 0,1-1 0,-1 1 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 1 0,0-1 0,16 19 0,4 29 0,-3 14 0,-14-57 13,-2-15-1391,-1-8-5448</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">2772 54 24575,'-365'-2'0,"-378"5"0,256 11 0,297-1 0,-43 1 0,171-11 0,-2 3 0,-84 19 0,2-1 0,97-19 0,32-4 0,-1 1 0,1 0 0,0 1 0,0 0 0,0 2 0,0-1 0,-18 10 0,28-10 0,0 1 0,1-1 0,0 2 0,1 0 0,-1 0 0,1 0 0,-1-1 0,2 2 0,-8 11 0,-31 69 0,37-74 0,3-6 0,1-2 0,-1 2 0,1 0 0,0 0 0,1-1 0,-1 1 0,1 0 0,1 0 0,0-1 0,0 2 0,0-1 0,1 0 0,0-1 0,0 1 0,4 12 0,-1-11 0,0 1 0,1-2 0,0 1 0,0-1 0,0 1 0,1-2 0,1 1 0,-1-1 0,1 1 0,0-2 0,15 11 0,30 16 0,1-1 0,3-3 0,107 38 0,186 34 0,-231-74 0,1-6 0,1-6 0,1-4 0,-1-5 0,1-5 0,160-22 0,313-8 0,-11 1 0,-563 26 0,1-1 0,0-1 0,-1 0 0,0-1 0,0-1 0,-2-1 0,1-1 0,0 0 0,25-17 0,-34 19 0,-1-1 0,1 1 0,-1-1 0,0-1 0,-1 0 0,0 1 0,0-2 0,-1 0 0,0 1 0,-1-2 0,0 1 0,-2-1 0,1 0 0,-1 0 0,0-1 0,-1 1 0,2-15 0,0-8 0,-1 7 0,-1-1 0,-1 1 0,-1-1 0,-6-50 0,4 72 0,-1 0 0,-1 0 0,1 1 0,-1 0 0,0-1 0,-1 1 0,1-1 0,-1 2 0,0-1 0,-1 0 0,2 1 0,-2-1 0,0 1 0,0 1 0,-10-7 0,-10-5 0,0 2 0,-32-12 0,48 21 0,-480-162 0,432 152-1365,14 4-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1536.57">2869 418 24575,'228'466'0,"-117"-234"0,-25-52-540,320 686-857,-69 33 1342,-305-770 671,34 255 1,-59-345-355,1 0 1,19 50-1,6 24-290,48 180 28,-37-165-1365,-39-107-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2143.14">4102 4245 24575,'2'7'0,"-1"-2"0,1 2 0,1 0 0,-1-1 0,1-1 0,0 2 0,1-1 0,-1 0 0,8 8 0,2 5 0,0 2 0,2 4 0,1-1 0,25 30 0,-37-49 0,0 0 0,1-1 0,-2 1 0,2-1 0,0 0 0,1 0 0,-1 0 0,0-1 0,1 0 0,0 0 0,0-1 0,0 1 0,0-1 0,0 0 0,1 0 0,11 1 0,-14-4 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0-1 0,0 0 0,-1-1 0,1 1 0,-1 1 0,1-2 0,-1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0-1 0,-1 1 0,0 0 0,0-1 0,0 1 0,2-7 0,5-10 0,-1-1 0,-1-1 0,4-29 0,-8 38 0,9-49-1365,-9 39-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3001.47">2980 4796 24575,'78'-80'0,"-5"-3"0,82-118 0,-155 200 0,1 1 0,-1-1 0,1 0 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 1 0,0-1 0,-1 0 0,1 1 0,0-1 0,0 1 0,-1-1 0,1 1 0,0 0 0,0-1 0,0 1 0,-1 0 0,1-1 0,0 1 0,0 0 0,1 0 0,-1 0 0,0 1 0,0-1 0,-1 1 0,1 0 0,-1-1 0,1 1 0,0 0 0,-1 0 0,0-1 0,1 1 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1-1 0,0 1 0,0 0 0,0 2 0,3 58 0,-4-48 0,0 224-1365,0-195-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3344.04">3160 4661 24575,'3'0'0,"4"0"0,10 0 0,13-1 0,19-5 0,19-5 0,6 0 0,-1-3 0,-10-2 0,-11 2 0,-16 4-8191</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4135.65">3562 4433 24575,'3'53'0,"3"0"0,18 76 0,-17-95 0,-4-20 0,-3-8 0,1 1 0,0-1 0,0 1 0,1-2 0,0 1 0,0 0 0,0 0 0,1-1 0,-1 1 0,2 0 0,-1-1 0,1 1 0,4 3 0,-7-8 0,0-1 0,1 1 0,-1-1 0,0 0 0,1 1 0,-1-1 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,1 1 0,-1-1 0,0 1 0,0-1 0,1 0 0,-1 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,1-2 0,29-37 0,-27 34 0,7-11 0,-8 10 0,2 1 0,-1 0 0,1-1 0,-1 1 0,2 0 0,5-5 0,-10 10 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 1 0,0-1 0,2 0 0,-1 1 0,-1 0 0,1 0 0,0 1 0,0-1 0,-1 0 0,1 1 0,-1-1 0,1 1 0,-1-1 0,0 0 0,1 1 0,-1-1 0,0 1 0,1 3 0,8 13 0,-8-13 0,0 0 0,1 0 0,0-1 0,0 1 0,0-2 0,0 2 0,6 5 0,-7-9 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0-1 0,0 1 0,0-1 0,0 0 0,1 1 0,-1-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,2-3 0,3 0 0,1-1 0,-2 0 0,1-1 0,0 1 0,-1-1 0,9-9 0,10-8 0,-25 22 0,1-1 0,0 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,0 0 0,-1-1 0,1 1 0,0 0 0,-1 0 0,1-1 0,0 1 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 1 0,-1-1 0,2 1 0,11 18 0,1 41 0,-11-40 0,-3-19-37,0-1 0,0 2 1,0-1-1,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 1,1 0-1,0 0 0,-1-1 0,1 1 0,0 0 0,0 0 0,0-1 0,-1 1 0,1 0 0,0-1 1,0 1-1,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,1 0 0,-1 0 0,0 1 0,0-1 1,0 0-1,-1 0 0,1 0 0,2 0 0,16-4-6789</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4690.89">4242 4675 24575,'-4'1'0,"0"0"0,0 0 0,0 0 0,0 1 0,1-1 0,-1 1 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 1 0,0 0 0,0-1 0,0 1 0,1 0 0,-1 1 0,-3 4 0,4-4 0,-1-1 0,1 1 0,-1 0 0,1 0 0,0 0 0,1-1 0,-1 1 0,1 0 0,0 0 0,0 0 0,0 1 0,0-1 0,1-1 0,-1 2 0,1-1 0,1 6 0,0-9 0,-1-1 0,1 1 0,-1 0 0,1 0 0,0-1 0,0 1 0,-1-1 0,1 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,-1 0 0,1 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,0 1 0,-1 0 0,1-1 0,1 0 0,37-24 0,-16 6 0,0-1 0,37-43 0,-60 62 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,-1 1 0,1-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,1 1 0,-1 0 0,0-1 0,0 1 0,0 0 0,0-1 0,3 1 0,-4 0 0,1 1 0,0-1 0,0 1 0,-1 0 0,1-1 0,-1 1 0,1 0 0,0-1 0,-1 1 0,1 0 0,-1-1 0,1 0 0,-1 1 0,0 0 0,1 0 0,-1 0 0,0-1 0,0 1 0,1 0 0,-1 0 0,0 2 0,1 61 0,-2-54 0,1 0-119,0 30 372,0-40-285,0 1 0,0 0 0,0-1 0,0 0 0,0 1 0,0-1 1,0 1-1,0 0 0,0-1 0,1 1 0,-1 0 0,0-1 0,0 1 0,1-1 0,-1 1 1,0-1-1,1 1 0,-1-1 0,1 1 0,-1-1 0,0 1 0,1-1 0,-1 1 0,1-1 1,-1 1-1,1-1 0,0 0 0,-1 1 0,1-1 0,-1 0 0,1 0 0,0 1 0,-1-1 1,1 0-1,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 1,0 0-1,-1 0 0,1 0 0,0-1 0,17-8-6794</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5173.78">4574 4567 24575,'39'0'0,"27"0"0,86 10 0,-150-11 0,0 1 0,0 0 0,1 1 0,-1-1 0,-1 0 0,1 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 1 0,-1-1 0,1 0 0,-1 1 0,1-1 0,-1 1 0,0 0 0,1-1 0,-1 1 0,0 0 0,0 0 0,0 0 0,0 0 0,-1-1 0,1 1 0,0 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,-1 0 0,1-1 0,-1 1 0,-1 3 0,-3 10 0,-1-1 0,-1 1 0,-1-1 0,-15 24 0,11-20 0,-29 43 0,21-34 0,2 1 0,1 1 0,-27 61 0,43-88-6,0 0 0,1 1 0,-1-1 0,0 0 0,1 1 0,0-1 0,-1 1 0,1-1-1,0 1 1,0-2 0,1 5 0,-1-6 11,0 0 0,0 1 0,1-1 0,-1 0 0,0 1 1,0-1-1,1 0 0,-1 1 0,0-1 0,0 0 0,1 1 0,-1-1 0,0 0 0,1 0 0,-1 1 0,1-1 0,-1 0 0,0 0 0,1 0 0,-1 1 0,1-1 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 1,0 0-1,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1-1 0,4-1-189,1 0-1,-1-1 1,0 0 0,0 1 0,-1-1-1,1-1 1,6-6 0,20-18-6642</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5519.07">4698 4796 24575,'2'0'0,"6"0"0,6 0 0,6 0 0,3 0 0,-1-2 0,0-1 0,-2-3 0,0-2 0,0 0 0,-3 1 0,-6-1-8191</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5982.66">5003 4715 24575,'-2'0'0,"0"0"0,0 1 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,0 0 0,0 0 0,0 0 0,0-1 0,-1 3 0,-15 43 0,15-39 0,1 1 0,0 0 0,0 0 0,1 0 0,0 1 0,1-2 0,1 12 0,-1-18 0,-1 0 0,1-2 0,-1 2 0,1-1 0,-1 1 0,1 0 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,1 0 0,-1 1 0,0-1 0,1 0 0,1 1 0,-1-1 0,0-1 0,1 1 0,-1-1 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,1-1 0,-1 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 0 0,3-1 0,-2 0 5,0 0-1,0 0 0,-1 0 0,1-1 1,0 1-1,-1-1 0,0 1 0,1 0 1,-1-1-1,0 0 0,-1 0 0,0 0 1,1 0-1,0 0 0,-1 0 0,0-1 1,0 2-1,0-2 0,0-3 1,2-8-237,-1 0 1,0-30 0,-2 29-526,1-25-6069</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6873.19">5142 4594 24575,'12'110'0,"-10"137"0,3-223 0,5-36 0,6-40 0,-4-25 0,-11 60 0,1-1 0,1 1 0,0 0 0,2-1 0,0 2 0,0 0 0,2-2 0,0 3 0,11-20 0,-18 35 0,0-1 0,1 1 0,-1-1 0,0 1 0,1-1 0,-1 1 0,0 0 0,1-1 0,-1 1 0,1-1 0,-1 1 0,1 0 0,-1-1 0,1 1 0,-1 0 0,1 0 0,-1 0 0,1-1 0,-1 1 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 1 0,0-1 0,16 19 0,4 27 0,-3 14 0,-14-56 13,-2-13-1391,-1-9-5448</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -1200,13 +1201,13 @@
       <inkml:brushProperty name="height" value="0.035" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">251 43 24575,'-7'-1'0,"-1"0"0,2-1 0,-1 0 0,0 0 0,0 0 0,0-1 0,-8-5 0,-26-8 0,38 14 0,-1 1 0,0 1 0,1-1 0,-1 0 0,0 1 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 1 0,-1-1 0,0 1 0,-6 2 0,8-1 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,1 0 0,-1 0 0,1 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0 0 0,1-1 0,-1 1 0,1 4 0,-4 25 0,2 0 0,1 0 0,2 0 0,1 0 0,8 44 0,47 152 0,-8-44 0,-47-177-81,8 52 293,-10-54-328,1-1 1,-1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,-1 3 0,-4 2-6711</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="354.58">0 544 24575,'2'0'0,"6"0"0,9 0 0,8 0 0,9-2 0,4-1 0,1 0 0,-5 0 0,-6-1 0,-7 0-8191</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="895.75">279 516 24575,'36'5'0,"-33"-3"0,0-2 0,-1 1 0,1 0 0,0 0 0,-1-1 0,1 1 0,0-1 0,0 0 0,-1 0 0,1 0 0,0 0 0,0-1 0,-1 1 0,1-1 0,0 1 0,-1-1 0,1 0 0,-1 0 0,1 0 0,-1-1 0,1 1 0,-1 0 0,0-1 0,1 0 0,-1 1 0,0-1 0,0 0 0,2-3 0,1-2 0,-1 0 0,-1-1 0,1 1 0,-1-1 0,0 1 0,-1-1 0,0 0 0,0 0 0,-1 0 0,0 0 0,0 0 0,-1-14 0,0 16 0,0-1 0,0 0 0,-1 1 0,0-1 0,0 1 0,0-1 0,-1 1 0,0 0 0,0 0 0,-1-1 0,0 2 0,0-1 0,0 0 0,-1 0 0,1 1 0,-6-5 0,7 8 0,0 0 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 1 0,-1-1 0,1 1 0,-1-1 0,-4 1 0,5 1 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 1 0,1-1 0,-1 0 0,0 0 0,1 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-2 2 0,-1 4 0,1-1 0,-1 1 0,1-1 0,0 1 0,1 0 0,0 0 0,0 0 0,1 1 0,-1 12 0,3-4 0,0 0 0,0 0 0,2 0 0,0-1 0,1 1 0,0-1 0,2 0 0,0 0 0,0 0 0,2-1 0,0 0 0,0-1 0,2 1 0,-1-2 0,2 1 0,0-2 0,1 1 0,0-1 0,0-1 0,2 0 0,-1-1 0,1-1 0,1 0 0,-1-1 0,1 0 0,1-1 0,0-1 0,0 0 0,0-1 0,0-1 0,25 3 0,0-5-1365,-8-5-5461</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1531.66">863 126 24575,'-3'12'0,"1"0"0,0 0 0,0 0 0,1 0 0,1 1 0,0-1 0,1 0 0,0 0 0,1 0 0,5 20 0,5 11 0,28 63 0,-20-56 0,10 22 0,-16-41 0,-1 0 0,-2 0 0,-1 1 0,7 39 0,-17-68 0,0 0 0,1-1 0,-1 1 0,-1 0 0,1-1 0,0 1 0,0 0 0,-1-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,0 1 0,-1-1 0,1 1 0,0-1 0,-1 0 0,1 0 0,-1 0 0,0 0 0,-2 2 0,-1 0 0,1-1 0,-1 0 0,0 0 0,0 0 0,0-1 0,0 0 0,-1 0 0,1 0 0,-10 2 0,0-2 0,0 0 0,-1 0 0,1-1 0,0-1 0,-1-1 0,-24-4 0,34 4 0,1 0 0,-1-1 0,1 1 0,-1-1 0,1-1 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,1-1 0,-1 1 0,1-1 0,0 0 0,0-1 0,0 1 0,1-1 0,0 1 0,0-1 0,-4-8 0,4 6 0,1 1 0,0-1 0,1 0 0,0 0 0,0 0 0,0 1 0,1-1 0,0 0 0,0 0 0,1 0 0,-1 0 0,2 0 0,-1 0 0,1 0 0,0 1 0,5-12 0,-4 12 0,-1-1 0,1 1 0,1 0 0,-1 0 0,1 0 0,0 1 0,1 0 0,-1-1 0,1 1 0,0 1 0,0-1 0,1 1 0,-1 0 0,1 0 0,9-5 0,-7 6 0,0 1 0,1-1 0,-1 2 0,1-1 0,-1 1 0,1 0 0,0 1 0,-1 0 0,1 0 0,-1 1 0,1 0 0,8 2 0,-5-2-105,0 1 0,-1 0 0,0 1 0,0 0 0,0 1 0,0 0 0,0 1 0,-1 0 0,0 1 0,0 0 0,0 0 0,13 12 0,-13-5-6721</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2105.91">1142 544 24575,'51'5'0,"-42"-3"0,0 0 0,0-1 0,0-1 0,0 1 0,0-2 0,15-1 0,-16 0 0,0 0 0,0-1 0,0 0 0,0-1 0,0 0 0,-1 0 0,0 0 0,0-1 0,0 0 0,0-1 0,-1 1 0,0-1 0,0 0 0,0-1 0,5-7 0,-8 10 0,0-1 0,0 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,-1-1 0,0 1 0,0 0 0,0-1 0,0 1 0,-1-1 0,0 0 0,0 1 0,-1-1 0,1 1 0,-1-1 0,0 1 0,-1 0 0,1-1 0,-1 1 0,0 0 0,-4-7 0,4 8 0,-1 0 0,0 0 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 1 0,0 0 0,0 0 0,-1 0 0,1 1 0,-1-1 0,1 1 0,-1 0 0,0 1 0,0-1 0,-6-1 0,8 3 0,0-1 0,-1 1 0,1-1 0,0 1 0,-1 0 0,1 0 0,0 0 0,-1 1 0,1-1 0,0 1 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 1 0,0-1 0,0 1 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,0 1 0,-1-1 0,1 1 0,-2 3 0,-2 6 0,0 0 0,1 0 0,0 0 0,1 1 0,1 0 0,0 0 0,0 0 0,1 0 0,1 0 0,0 1 0,1-1 0,1 0 0,2 18 0,-1-19 0,0-1 0,0 0 0,1 1 0,1-1 0,0 0 0,1-1 0,0 1 0,0-1 0,1 0 0,0 0 0,1-1 0,0 1 0,1-2 0,0 1 0,13 11 0,-5-9 0,-1-1 0,1 0 0,1-1 0,0-1 0,0-1 0,1 0 0,0-1 0,0-1 0,0-1 0,1-1 0,-1 0 0,1-1 0,0-1 0,-1-1 0,1 0 0,35-7 0,-49 6-91,1-1 0,-1 1 0,0-1 0,0 0 0,0-1 0,0 0 0,-1 1 0,1-1 0,-1-1 0,0 1 0,1-1 0,-2 0 0,1 1 0,4-6 0,6-13-6735</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2638.17">1657 168 24575,'109'99'0,"150"106"0,12 10 0,-233-179-1365,-28-25-5461</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3164.82">2326 126 24575,'-3'0'0,"0"5"0,-2 6 0,-3 6 0,-7 7 0,-8 14 0,-10 15 0,-8 12 0,-5 7 0,-4 6 0,3-4 0,5-7 0,9-10 0,9-15-8191</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">249 41 24575,'-7'-1'0,"-1"0"0,2-1 0,-1 0 0,0 1 0,0-1 0,0-1 0,-8-5 0,-25-7 0,37 13 0,-1 1 0,0 1 0,1-1 0,-1 0 0,0 1 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 1 0,-1-1 0,0 1 0,-6 2 0,8-1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0 0 0,0 0 0,1 0 0,-1 0 0,1 1 0,0-1 0,0 0 0,0 1 0,0-2 0,0 1 0,0 1 0,1 0 0,0-1 0,-1 1 0,1 4 0,-4 23 0,2 1 0,1 0 0,2-1 0,1 1 0,7 41 0,48 147 0,-8-43 0,-47-170-81,8 51 293,-10-52-328,1-1 1,-1-1 0,0 1 0,0 0 0,-1 0 0,1 0 0,-1 0 0,0-1 0,0 1 0,0 0 0,-1 0 0,-1 3 0,-4 1-6711</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="354.58">0 521 24575,'2'0'0,"6"0"0,9 0 0,8 0 0,8-2 0,5-1 0,1 0 0,-6 0 0,-5-1 0,-7 0-8191</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="895.75">277 494 24575,'35'5'0,"-32"-3"0,0-2 0,-1 1 0,1-1 0,0 1 0,-1-1 0,1 1 0,0-1 0,0 0 0,-1 0 0,1 0 0,0 0 0,0-1 0,-1 1 0,1-1 0,0 1 0,-1 0 0,1-1 0,-1 0 0,1 0 0,-1-1 0,1 1 0,-1 0 0,0-1 0,1 0 0,-1 1 0,0-1 0,0 0 0,2-3 0,1-1 0,-1-1 0,-1-1 0,1 2 0,-1-2 0,0 1 0,-1 0 0,0-1 0,0 0 0,-1 1 0,0-1 0,0 0 0,-1-13 0,0 16 0,0-2 0,0 0 0,-1 1 0,0 0 0,0 0 0,0-1 0,-1 2 0,0-1 0,0 0 0,-1-1 0,0 3 0,0-2 0,0 0 0,-1 0 0,1 2 0,-6-6 0,7 8 0,0 0 0,0 0 0,0 1 0,0-1 0,0 1 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 1 0,-1-1 0,1 1 0,-1-1 0,-4 1 0,5 1 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 1 0,1-2 0,-1 1 0,0 0 0,1 1 0,-1-1 0,1 1 0,-1-1 0,2 1 0,-3 2 0,-1 4 0,1-2 0,-1 2 0,1-1 0,0 0 0,1 1 0,0 0 0,0-1 0,1 2 0,-1 11 0,3-4 0,0 0 0,0 1 0,2-1 0,0-1 0,1 2 0,0-2 0,2 0 0,0 1 0,-1-1 0,3-1 0,0 1 0,0-2 0,2 1 0,-1-1 0,2 0 0,0-1 0,1 0 0,0 0 0,0-2 0,2 1 0,-2-2 0,2 0 0,1-1 0,-1 0 0,1 0 0,1-2 0,0 0 0,0 0 0,-1-1 0,1-2 0,25 4 0,0-5-1365,-9-5-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1531.66">856 121 24575,'-3'11'0,"1"1"0,0-1 0,0 1 0,1-1 0,1 1 0,0 0 0,1-1 0,0 1 0,1-1 0,5 20 0,5 10 0,28 61 0,-21-55 0,11 22 0,-16-39 0,-1 0 0,-2-1 0,-1 2 0,7 37 0,-17-65 0,0 0 0,1-1 0,-1 0 0,-1 1 0,1-1 0,0 1 0,0 0 0,-1-1 0,0 1 0,1-1 0,-1 1 0,0-2 0,0 2 0,-1-1 0,1 1 0,0-1 0,-1 0 0,1 0 0,-1 0 0,0 0 0,-2 2 0,-1-1 0,1 0 0,-1 0 0,0 0 0,0 0 0,0-1 0,0 0 0,-1 0 0,1 0 0,-10 1 0,0-1 0,1 0 0,-2 0 0,1-1 0,0-1 0,-1-1 0,-24-4 0,34 4 0,1 0 0,0-1 0,0 2 0,-1-2 0,1-1 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,1-1 0,0 0 0,0-1 0,0 1 0,1 0 0,0 0 0,0-1 0,-4-7 0,4 5 0,1 1 0,0-1 0,1 1 0,0-1 0,0 0 0,0 2 0,1-2 0,0 0 0,0 0 0,1 1 0,-1-1 0,2 0 0,-1 1 0,1-1 0,0 1 0,5-11 0,-4 11 0,-1 0 0,1 0 0,1 0 0,-1 0 0,1 1 0,0 0 0,1 0 0,-1-1 0,1 1 0,0 2 0,0-2 0,1 1 0,-1 0 0,1 0 0,8-4 0,-6 5 0,0 1 0,1-1 0,-1 2 0,1-1 0,-1 1 0,1 0 0,0 1 0,-1 0 0,1 0 0,-1 1 0,1 0 0,8 2 0,-6-2-105,1 1 0,-1 0 0,0 1 0,0 0 0,0 0 0,0 1 0,0 1 0,-1 0 0,0 1 0,0-1 0,-1 1 0,14 11 0,-13-4-6721</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2105.91">1133 521 24575,'50'4'0,"-41"-2"0,0 0 0,0-1 0,0-1 0,0 1 0,0-2 0,15-1 0,-16 0 0,0 0 0,0 0 0,-1-1 0,1-1 0,0 0 0,-1 0 0,0 0 0,0 0 0,0-1 0,0-1 0,-1 1 0,0 0 0,0-1 0,0-1 0,5-6 0,-8 9 0,0-1 0,0 0 0,-1 1 0,1-1 0,-1 0 0,0 0 0,0 0 0,-1 0 0,0 0 0,0 0 0,0-1 0,0 2 0,-1-2 0,0 0 0,0 1 0,-1 0 0,1 0 0,-1-1 0,0 1 0,-1 0 0,1 0 0,-1 0 0,0 0 0,-4-6 0,4 7 0,-1 0 0,0 0 0,-1 0 0,1 1 0,-1 0 0,1-1 0,-1 1 0,0 0 0,0 0 0,-1 0 0,1 1 0,-1 0 0,1 0 0,-1 0 0,0 1 0,0-1 0,-6-1 0,8 3 0,0-1 0,-1 1 0,1-1 0,0 1 0,-1 0 0,1 0 0,1 0 0,-2 1 0,1-1 0,0 1 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 1 0,0-1 0,0 1 0,1 0 0,-1-1 0,0 1 0,1 0 0,-1 0 0,1 0 0,0 1 0,-1-1 0,1 1 0,-2 2 0,-2 7 0,0-1 0,1 1 0,0-1 0,1 2 0,1-1 0,0 1 0,0-1 0,1 1 0,1-1 0,0 1 0,1 0 0,1-1 0,2 18 0,-1-18 0,0-2 0,0 1 0,1 0 0,1 0 0,0-1 0,1 0 0,0 0 0,0 0 0,1-1 0,0 1 0,1-1 0,0 0 0,1-1 0,0 0 0,12 11 0,-4-8 0,-1-1 0,1-1 0,1 0 0,0-2 0,0 0 0,1 0 0,-1-1 0,1-2 0,0 0 0,1-1 0,-1 0 0,1-1 0,0-1 0,-2-1 0,2 0 0,35-7 0,-49 6-91,1-1 0,-1 1 0,0-1 0,0 0 0,0 0 0,-1-1 0,0 1 0,1-1 0,-1-1 0,0 1 0,1-1 0,-2 1 0,1 0 0,4-6 0,6-12-6735</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2638.17">1644 161 24575,'108'95'0,"149"101"0,11 9 0,-230-170-1365,-28-25-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3164.82">2307 121 24575,'-3'0'0,"0"4"0,-2 7 0,-3 5 0,-7 7 0,-7 14 0,-11 13 0,-8 12 0,-4 7 0,-5 6 0,3-4 0,6-7 0,8-10 0,9-13-8191</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -1260,26 +1261,26 @@
       <inkml:brushProperty name="height" value="0.035" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1170 126 24575,'1'-1'0,"-1"-1"0,1 1 0,0-1 0,-1 1 0,1-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1 0 0,1-1 0,0 1 0,-1 0 0,1 0 0,-1 0 0,4 0 0,2 0 0,0 0 0,1 0 0,-1 0 0,0 1 0,12 3 0,-16-3 7,0 0-1,0 0 0,-1 1 0,1-1 1,-1 1-1,1 0 0,-1 0 1,0 0-1,1 0 0,-1 0 1,0 0-1,0 1 0,-1-1 0,1 1 1,0 0-1,-1-1 0,0 1 1,2 3-1,0 3-303,0 1 0,0-1 0,-1 1 0,1 12 0,-2-8-6529</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1649.71">1324 1 24575,'0'2'0,"0"4"0,0 2 0,0 3 0,2 2 0,1 1 0,0 0 0,0 1 0,-1-1 0,1 1 0,1-1 0,-1 0 0,-1 0 0,0-2-8191</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2280.67">1170 140 24575,'0'3'0,"0"2"0,0 6 0,0 3 0,0 2 0,0 0 0,0 2 0,0 1 0,0-1 0,0-1 0,0-3-8191</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3098.01">906 168 24575,'0'-1'0,"1"-1"0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0 0 0,0-1 0,1 1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 1 0,0-1 0,-1 1 0,4-1 0,0-1 0,0 1 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 1 0,10 0 0,-12 2 7,1-1 0,0 1 0,0 0 0,-1 0 0,1 0 1,-1 0-1,0 1 0,1 0 0,-1-1 0,0 1 0,-1 0 0,1 0 0,0 1 0,-1-1 0,0 0 0,4 7 0,-1 0-255,-1 0 1,0-1-1,0 2 1,-1-1-1,3 15 1,-4-12-6579</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3582.05">934 182 24575,'0'2'0,"0"4"0,0 5 0,0 3 0,0 2 0,0 2 0,0 4 0,0 2 0,0 0 0,2 0 0,1-2 0,0-6 0,0-6-8191</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4186.03">808 182 24575,'0'2'0,"0"6"0,0 4 0,0 2 0,0 1 0,0 1 0,3-3 0,2-4 0,4-2 0,2-4 0,-1-1-8191</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4733.7">488 321 24575,'1'-4'0,"0"0"0,0 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 1 0,1-1 0,-1 1 0,1-1 0,0 1 0,0 0 0,0 0 0,0 0 0,1 1 0,-1-1 0,1 1 0,0 0 0,-1 0 0,1 0 0,0 0 0,8-1 0,-6 3 0,0 1 0,0 1 0,0-1 0,0 1 0,0 1 0,0-1 0,0 1 0,-1 0 0,1 0 0,-1 0 0,9 8 0,52 49 0,-61-55-91,0 0 0,0-1 0,0 2 0,0-1 0,-1 1 0,0-1 0,0 1 0,-1 0 0,1 0 0,-1 1 0,-1-1 0,1 1 0,-1 0 0,2 10 0,-6 2-6735</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5414.54">1268 530 24575,'2'-2'0,"4"-4"0,2 0 0,8 1 0,3-2 0,1 1 0,-1 2 0,-1 3 0,-1 7 0,-4 4 0,-4 6 0,-1 0 0,-2 2 0,-2 1 0,-1-4-8191</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5817">1310 656 24575,'0'2'0,"0"3"0,0 4 0,0 2 0,0-1-8191</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6733.67">1185 572 24575,'0'21'0,"0"1"0,-2-1 0,0 1 0,-2-1 0,-5 21 0,9-41 0,-1 0 0,1 0 0,0-1 0,-1 1 0,1 0 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1-1 0,1 1 0,-1-1 0,0 1 0,1 0 0,-1-1 0,0 0 0,0 1 0,1-1 0,-1 1 0,0-1 0,0 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,-31-11 0,22 4 0,0 0 0,0 0 0,-12-12 0,22 17 0,-1 0 0,0 1 0,0-1 0,1 0 0,-1 1 0,0 0 0,0-1 0,0 1 0,-1 0 0,1 0 0,0 0 0,0 0 0,-4 0 0,5 1 0,-1 0 0,1 1 0,-1-1 0,1 1 0,0 0 0,-1-1 0,1 1 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 1 0,0-1 0,1 0 0,-1 0 0,0 1 0,1-1 0,-1 2 0,-11 43-1365,11-32-5461</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7095.11">780 544 24575,'3'2'0,"0"6"0,2 2 0,3 3 0,0 7 0,-1 7 0,0 1 0,-1 1 0,-1 0 0,0-4 0,0-5 0,-1-4 0,-1-1 0,-2-4-8191</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7874.18">530 641 24575,'0'-2'0,"0"0"0,0 0 0,0 0 0,0 0 0,0 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,1-1 0,-1 0 0,0 1 0,1-1 0,-1 1 0,1-1 0,0 1 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,1-1 0,-1 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 1 0,0-1 0,0 0 0,-1 0 0,1 1 0,0-1 0,-1 1 0,1-1 0,-1 1 0,2 2 0,1 4 0,0 0 0,-1-1 0,0 2 0,3 15 0,-5-19 0,0 1 0,1-1 0,0 1 0,-1-1 0,1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,1-1 0,-1 0 0,7 7 0,-4-6 0,5 2 0,-2 1 0,1 0 0,-1 1 0,0 0 0,-1 1 0,0-1 0,-1 2 0,0-1 0,9 17 0,-16-26-22,0 0 0,0-1 0,-1 1 0,1-1 0,0 1 0,0 0 0,-1-1 0,1 1 0,0-1 0,-1 1 0,1-1 0,0 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1-1 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 1 0,-1-1 0,0 0 0,1 0 0,-1 1 0,1-1 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0-1 0,-1 1-485,-13 1-6319</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8694.53">307 684 24575,'8'0'0,"0"0"0,-1 1 0,1 1 0,-1-1 0,1 1 0,-1 0 0,0 1 0,1 0 0,-1 0 0,-1 0 0,1 1 0,0 0 0,-1 1 0,0-1 0,0 1 0,0 0 0,-1 1 0,0-1 0,0 1 0,0 0 0,0 0 0,-1 1 0,4 7 0,-1 0 0,-1-1 0,0 1 0,-1 0 0,-1 1 0,0 0 0,-1-1 0,0 1 0,-1 0 0,-1 0 0,-1 30 0,0-43 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 0 0,1 1 0,-1-1 0,0 0 0,1 0 0,-1 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,-2 2 0,1-3 0,1 0 0,0 0 0,-1 1 0,1-1 0,-1 0 0,1 0 0,0 0 0,-1-1 0,1 1 0,0 0 0,-1 0 0,1-1 0,0 1 0,0-1 0,-1 1 0,1-1 0,0 0 0,0 1 0,-2-2 0,-2-2 0,1 1 0,-1-1 0,1 0 0,-1 0 0,1-1 0,1 1 0,-1-1 0,1 0 0,0 0 0,-4-6 0,5 3 0,0 0 0,1 1 0,-1-1 0,2 0 0,-1 0 0,1 0 0,0 0 0,1 0 0,0 0 0,0 0 0,0 1 0,6-15 0,4-12 0,27-51 0,-10 22 0,-12 30-1365,-8 20-5461</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9305.94">1 725 24575,'63'-7'0,"-51"5"0,0 0 0,0 1 0,0 0 0,1 1 0,17 2 0,-26-1 0,0 0 0,0 0 0,-1 0 0,1 1 0,0-1 0,-1 1 0,1 0 0,-1 0 0,1 0 0,-1 1 0,0-1 0,0 1 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 1 0,0-1 0,2 6 0,8 16-273,-2 2 0,0-1 0,-2 1 0,8 39 0,-15-53-6553</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9727.17">154 920 24575,'0'3'0,"0"2"0,0 4 0,0 2 0,0 4 0,2-1 0,2 2 0,-1 2 0,-1-4-8191</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11339.37">377 1227 24575,'22'52'0,"-2"1"0,-2 0 0,15 82 0,-28-262 0,-4 124 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 1 0,1-1 0,-1 1 0,1-1 0,0 1 0,-1 0 0,1 0 0,0 0 0,0 1 0,0-1 0,0 1 0,1-1 0,-1 1 0,0 0 0,0 0 0,7 0 0,-3-1 0,0 0 0,-1 1 0,1 0 0,0 0 0,0 1 0,-1 0 0,1 0 0,0 0 0,0 1 0,0 0 0,7 3 0,-9-1 0,0 1 0,0-1 0,-1 1 0,1 1 0,-1-1 0,0 1 0,0-1 0,0 1 0,-1 0 0,0 1 0,0-1 0,0 0 0,-1 1 0,1 0 0,-1 0 0,-1-1 0,3 12 0,-4-15 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,-1 0 0,-2 1 0,0 0 0,1 1 0,-1-2 0,0 1 0,0 0 0,0-1 0,0 0 0,-1 0 0,1-1 0,0 1 0,0-1 0,-8-1 0,-43-11-1365,44 10-5461</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12342.22">795 1240 24575,'0'3'0,"0"2"0,2 4 0,1 2 0,0 2 0,-1 0 0,3 1 0,-1 3 0,2-1 0,2 0 0,0 1 0,-2-3-8191</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12719.03">753 1059 24575,'0'0'-8191</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14012.2">989 990 24575,'2'9'0,"-1"0"0,2 0 0,-1 0 0,1 0 0,0-1 0,8 15 0,3 11 0,-1 7 0,-6-17 0,1-1 0,1 0 0,18 35 0,-23-51 0,0-1 0,0-1 0,0 1 0,-1 0 0,0 1 0,-1-1 0,4 12 0,-6-17 0,0 1 0,1 0 0,-1-1 0,-1 1 0,1 0 0,0-1 0,0 1 0,-1 0 0,1-1 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1-1 0,-1 1 0,1-1 0,-1 1 0,0-1 0,-1 1 0,-2 1 0,-1 0 0,1-1 0,-1 1 0,0-1 0,0-1 0,1 1 0,-1-1 0,0 0 0,0 0 0,1 0 0,-1-1 0,0 0 0,0 0 0,1-1 0,-1 1 0,-6-4 0,9 3 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0-1 0,1 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,1-1 0,0 1 0,0 0 0,0-1 0,1 1 0,-1-1 0,1 1 0,0-1 0,0 1 0,0-1 0,0 1 0,1-6 0,0 7 1,-1 0 0,0 1 0,1-1 0,0 0 0,-1 0 0,1 1 0,0-1 0,0 1-1,0-1 1,0 1 0,0-1 0,0 1 0,0 0 0,0-1 0,1 1 0,-1 0 0,0 0 0,1 0 0,-1 0-1,1 0 1,0 0 0,-1 0 0,1 1 0,0-1 0,-1 0 0,3 0 0,54-7-93,-25 5-1206,-23 0-5528</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15236.41">279 1031 24575,'19'-1'0,"0"-2"0,0-1 0,0 0 0,26-10 0,-3 2 0,-9 2 0,200-47 0,-193 49 0,1 2 0,79 0 0,-82 4 0,69-12 0,-18 1 0,-54 8 0,0-2 0,65-23 0,16-3 0,-36 14-1365,-57 13-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1242 121 24575,'1'0'0,"-1"-2"0,1 1 0,0-1 0,-1 1 0,1-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,2 0 0,-2 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,0 0 0,0-1 0,0 1 0,-1 0 0,1 0 0,-1 0 0,4 0 0,3 0 0,-1 0 0,2 0 0,-2 0 0,1 1 0,12 3 0,-17-3 7,0 0-1,0 0 0,-1 1 0,2-1 1,-2 1-1,1 0 0,-1 0 1,0 0-1,1 0 0,-1 0 1,1 0-1,-1 0 0,-1 0 0,1 1 1,0 0-1,-1-1 0,0 1 1,2 3-1,0 2-303,1 2 0,-1-1 0,-1 0 0,1 13 0,-2-9-6529</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1649.71">1405 1 24575,'0'2'0,"0"4"0,0 1 0,0 4 0,2 2 0,1 0 0,1 1 0,-1 0 0,-1-1 0,1 2 0,1-2 0,0 1 0,-2-1 0,0-1-8191</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2280.67">1242 135 24575,'0'3'0,"0"2"0,0 5 0,0 4 0,0 1 0,0 1 0,0 1 0,0 1 0,0 0 0,0-2 0,0-2-8191</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3098.01">962 162 24575,'0'-1'0,"1"-1"0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0 1 0,0-2 0,1 1 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 1 0,0-1 0,-1 1 0,5-1 0,-1-1 0,0 1 0,1 0 0,-2 0 0,1 0 0,0 0 0,1 1 0,10 0 0,-13 2 7,1-1 0,0 1 0,1 0 0,-2 0 0,1 0 1,-1 0-1,0 1 0,2 0 0,-2-2 0,0 2 0,-1 0 0,1 0 0,0 1 0,0-1 0,-1 0 0,4 6 0,-1 1-255,0 0 1,-1-2-1,0 3 1,-1-1-1,4 14 1,-5-12-6579</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3582.05">991 175 24575,'0'2'0,"0"4"0,0 5 0,0 2 0,0 3 0,0 1 0,0 4 0,0 2 0,0 0 0,2 1 0,2-3 0,-1-6 0,0-5-8191</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4186.03">858 175 24575,'0'2'0,"0"6"0,0 4 0,0 1 0,0 2 0,0 0 0,3-2 0,2-5 0,5-1 0,1-4 0,0-1-8191</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4733.7">518 309 24575,'1'-3'0,"0"-1"0,0 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,1 1 0,-1-1 0,0 1 0,1-1 0,-1 1 0,1-1 0,0 1 0,1 0 0,-1 1 0,0-1 0,1 1 0,-1-1 0,2 1 0,-1 0 0,-1 0 0,1 0 0,1 0 0,7-1 0,-5 3 0,-1 1 0,0 1 0,1-1 0,-1 1 0,1 1 0,-1-1 0,0 1 0,0 0 0,0 0 0,-1-1 0,10 9 0,55 47 0,-64-53-91,-1 0 0,0-2 0,0 3 0,1-1 0,-2 1 0,0-1 0,0 0 0,0 1 0,0 0 0,-1 1 0,-1-2 0,1 2 0,0 0 0,1 9 0,-6 3-6735</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5414.54">1346 511 24575,'2'-2'0,"4"-4"0,3 0 0,8 2 0,3-3 0,1 1 0,-1 2 0,-1 3 0,-1 7 0,-4 4 0,-4 5 0,-2 0 0,-1 3 0,-3 0 0,-1-3-8191</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5817">1390 632 24575,'0'2'0,"0"3"0,0 4 0,0 1 0,0 0-8191</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6733.67">1258 551 24575,'0'21'0,"0"0"0,-2-1 0,-1 1 0,-1-1 0,-5 21 0,9-40 0,-1 0 0,1 0 0,0-1 0,-2 1 0,2 0 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1-1 0,1 1 0,-1-1 0,0 1 0,1 0 0,-1-1 0,0 0 0,0 1 0,1-1 0,-1 0 0,0 0 0,0 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,0 0 0,0 0 0,-1 0 0,0 0 0,-33-10 0,24 3 0,-1 0 0,0 1 0,-12-13 0,23 17 0,-1 0 0,0 1 0,-1 0 0,2-1 0,-1 1 0,0 0 0,0-1 0,0 1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-4 0 0,5 1 0,-1 0 0,1 1 0,-1-1 0,1 1 0,-1 0 0,0-1 0,1 1 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1-1 0,0 2 0,0-1 0,1 0 0,-2 0 0,1 1 0,1-1 0,-1 2 0,-11 41-1365,11-30-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7095.11">828 524 24575,'3'2'0,"0"6"0,2 2 0,4 2 0,-1 7 0,0 7 0,-1 1 0,0 1 0,-2 0 0,0-4 0,1-4 0,-2-5 0,-1 0 0,-2-5-8191</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7874.18">562 618 24575,'0'-2'0,"0"0"0,0 0 0,0 0 0,0 0 0,0 0 0,2-1 0,-2 1 0,1 1 0,-1-1 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,1-1 0,-1 0 0,0 1 0,1-1 0,-1 1 0,2-1 0,-1 1 0,0 1 0,-1-1 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 1 0,1-1 0,-1 1 0,0 0 0,0-1 0,0 1 0,1 0 0,-1 0 0,1 1 0,-1-1 0,0 0 0,0 1 0,0-1 0,0 1 0,1 0 0,-1 0 0,0-1 0,0 1 0,0 1 0,0-1 0,0-1 0,-1 1 0,1 1 0,1-1 0,-2 1 0,1-1 0,-1 1 0,2 2 0,1 4 0,1-1 0,-2 0 0,0 2 0,3 14 0,-5-18 0,0 1 0,2-2 0,-1 2 0,-1-1 0,1 0 0,1 0 0,-1-1 0,1 1 0,0 0 0,1 0 0,0-1 0,-1 0 0,8 6 0,-5-5 0,6 2 0,-3 1 0,2-1 0,-2 2 0,1 0 0,-1 0 0,-1 0 0,-1 1 0,1 0 0,9 16 0,-17-25-22,0 0 0,0-1 0,-1 1 0,1-1 0,0 1 0,0 0 0,-1-1 0,1 1 0,0-1 0,-1 1 0,1-1 0,0 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-2-1 0,2 0 0,-1 1 0,1-1 0,-1 0 0,1 1 0,-1-1 0,0 0 0,1 0 0,-1 1 0,1-1 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0-1 0,-1 1-485,-14 1-6319</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8694.53">326 659 24575,'8'0'0,"1"0"0,-2 1 0,2 1 0,-2-1 0,2 1 0,-2 0 0,0 1 0,2 0 0,-2 0 0,0 0 0,0 0 0,1 1 0,-2 1 0,0-1 0,1 1 0,-1 0 0,-1 0 0,1 0 0,-1 1 0,0 0 0,1 0 0,-2 0 0,4 8 0,0-1 0,-2 0 0,1 0 0,-2 1 0,-1 0 0,0 1 0,-1-2 0,1 2 0,-2-1 0,-1 1 0,-1 28 0,0-41 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,-1 1 0,1-2 0,-1 2 0,1-1 0,-1 0 0,1 1 0,-1-1 0,0 0 0,1 0 0,-2 1 0,1-1 0,0 0 0,0 0 0,0 0 0,0 0 0,-2 2 0,1-3 0,1 0 0,0 0 0,-1 1 0,1-1 0,-2 0 0,2 0 0,0 0 0,-1-1 0,1 1 0,0 0 0,-1 0 0,1-1 0,0 1 0,0-1 0,-1 1 0,1-1 0,0 0 0,-1 1 0,-1-2 0,-2-2 0,1 1 0,-2-1 0,2 1 0,-1-1 0,1-1 0,0 1 0,0-1 0,1 0 0,0 1 0,-5-7 0,6 3 0,0 1 0,1 0 0,-1-1 0,2 0 0,-1 1 0,1-1 0,0 0 0,1 1 0,0-1 0,0 0 0,0 1 0,7-14 0,3-12 0,30-49 0,-12 22 0,-12 28-1365,-8 19-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9305.94">1 699 24575,'67'-7'0,"-54"5"0,-1 0 0,1 1 0,0 0 0,1 1 0,17 2 0,-26-1 0,-1 0 0,0 0 0,-1 0 0,2 1 0,-1-1 0,-1 1 0,1 0 0,-1 0 0,2 0 0,-2 1 0,0-2 0,0 2 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,0 1 0,0-2 0,3 7 0,7 15-273,-1 2 0,0-1 0,-3 1 0,9 38 0,-16-52-6553</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9727.17">163 887 24575,'0'3'0,"0"1"0,0 5 0,0 2 0,0 3 0,3 0 0,1 1 0,-1 2 0,-1-3-8191</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11339.37">400 1183 24575,'23'50'0,"-1"1"0,-3 0 0,16 79 0,-30-252 0,-4 119 0,1 0 0,-1 0 0,1 0 0,1 0 0,-1 0 0,0 0 0,0 1 0,1 0 0,-1 0 0,1-1 0,1 1 0,-2 0 0,1 0 0,0 0 0,0 1 0,0-1 0,1 1 0,0-1 0,-1 1 0,0 0 0,0 0 0,8 0 0,-3-1 0,-1 1 0,-1 0 0,2 0 0,-1 0 0,1 1 0,-2 0 0,1 0 0,1 0 0,-1 1 0,1 0 0,7 2 0,-10 0 0,0 1 0,0-1 0,0 1 0,0 1 0,-1-1 0,0 0 0,1 0 0,-1 1 0,-1 0 0,0 1 0,1-1 0,-1-1 0,-1 2 0,1 0 0,-1 0 0,-1-1 0,3 11 0,-4-14 0,-1 1 0,1-1 0,-1 1 0,1-2 0,-1 1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-2 0 0,1 0 0,0-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,-1 0 0,0 0 0,-2 1 0,0 0 0,0 1 0,0-2 0,0 1 0,0 0 0,-1-1 0,1 0 0,-1 0 0,0-1 0,1 1 0,0-1 0,-9-1 0,-46-11-1365,48 10-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12342.22">844 1195 24575,'0'3'0,"0"2"0,2 4 0,1 1 0,0 3 0,-1-1 0,4 2 0,-2 2 0,2 0 0,3-1 0,-1 1 0,-1-2-8191</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12719.03">799 1021 24575,'0'0'-8191</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14012.2">1050 954 24575,'2'9'0,"-1"0"0,2-1 0,-1 1 0,1 0 0,0-2 0,9 15 0,3 11 0,-1 7 0,-7-17 0,2-1 0,0 0 0,20 34 0,-25-49 0,0-1 0,1-2 0,-1 2 0,-1 0 0,0 1 0,-1-1 0,5 11 0,-7-16 0,0 1 0,1 0 0,-1-1 0,-1 1 0,1 0 0,0-1 0,0 0 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,-1-1 0,1 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-2-1 0,2 0 0,-1 1 0,1-1 0,-1 1 0,0-1 0,-1 1 0,-2 1 0,-2 0 0,2-1 0,-2 1 0,1-1 0,0-1 0,0 1 0,0-1 0,0 0 0,-1 0 0,2 0 0,-1-1 0,-1 0 0,1 0 0,1-1 0,-2 1 0,-6-4 0,10 4 0,0-1 0,0 0 0,0 0 0,1 0 0,-2 0 0,1-1 0,1 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 1 0,-1-1 0,2 0 0,-1 0 0,1-1 0,0 1 0,0 0 0,0-1 0,1 2 0,-1-2 0,1 1 0,0-1 0,0 1 0,0-1 0,0 1 0,1-5 0,0 6 1,-1 0 0,0 1 0,1-1 0,0 0 0,-1 0 0,1 1 0,0-1 0,0 1-1,0-1 1,0 1 0,1-1 0,-1 1 0,0 0 0,0-1 0,1 2 0,-1-1 0,0 0 0,1 0 0,-1 0-1,1 0 1,0 0 0,-1 0 0,2 1 0,-1-1 0,-1 0 0,3 0 0,58-7-93,-27 5-1206,-25 0-5528</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15236.41">296 994 24575,'20'-1'0,"0"-2"0,1-1 0,-1 0 0,27-9 0,-2 1 0,-10 2 0,212-44 0,-204 46 0,0 2 0,85 0 0,-88 4 0,74-11 0,-20 0 0,-57 8 0,0-1 0,70-23 0,16-3 0,-38 14-1365,-61 12-5461</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -1306,36 +1307,36 @@
       <inkml:brushProperty name="height" value="0.035" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">264 4150 24575,'5777'0'0,"-5606"-15"0,337 1 0,-130 4 0,-164-14 0,224-59 0,-360 64 0,1 3 0,0 4 0,114-4 0,234 15-1365,-399 2-5461</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1665.29">1295 250 24575,'0'4'0,"-20"969"0,3-562 0,17-274 0,19 137 0,69 1336 0,-90-1429 0,-1 35 0,31 269 0,-8-232-1365,-20-231-5461</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2909.71">1156 264 24575,'1'-14'0,"0"-1"0,1 0 0,1 1 0,0 0 0,1-1 0,1 1 0,8-16 0,3-5 0,33-49 0,-49 83 0,0 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,0 1 0,1-1 0,0 0 0,-1 1 0,1-1 0,-1 1 0,1-1 0,0 1 0,-1-1 0,1 1 0,0-1 0,0 1 0,-1 0 0,1-1 0,0 1 0,0 0 0,0-1 0,-1 1 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,1 1 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 1 0,0-1 0,-1 1 0,1 0 0,-1-1 0,0 1 0,1 0 0,-1 0 0,1 2 0,28 68 0,-27-64 0,133 423-1365,-130-409-5461</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4378.08">8536 3787 24575,'14'3'0,"0"-1"0,0 2 0,0 0 0,0 0 0,-1 2 0,0-1 0,0 2 0,-1 0 0,20 13 0,7 4 0,189 94 0,-226-117 0,0 0 0,0 0 0,0 0 0,-1 1 0,1-1 0,0 0 0,-1 1 0,1-1 0,-1 1 0,1 0 0,-1-1 0,1 1 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 2 0,-1-2 0,0 0 0,0-1 0,0 1 0,0-1 0,-1 1 0,1-1 0,0 1 0,-1-1 0,1 1 0,-1-1 0,0 0 0,0 1 0,1-1 0,-1 0 0,0 1 0,0-1 0,0 0 0,0 0 0,-2 2 0,-8 5 0,-1 0 0,1 0 0,-1-2 0,-23 11 0,9-5 0,3 1-77,-46 22-1211,55-31-5538</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18155.09">1197 2715 24575,'5'0'0,"6"-2"0,11-4 0,9-2 0,1-1 0,-2 2 0,-5-1 0,-5 2-8191</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18900.66">209 2757 24575,'2'0'0,"4"2"0,2 4 0,3 5 0,2 3 0,-2 1 0,-2 2 0,-1 1 0,-1 1 0,0 1 0,-1 5 0,1 0 0,2 4 0,-1-2 0,3-5 0,-1-6-8191</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="19690.7">529 2813 24575,'-1'-1'0,"-1"1"0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 1 0,0-1 0,-1 0 0,1 1 0,0-1 0,-1 1 0,1-1 0,0 1 0,0 0 0,0 0 0,-1-1 0,1 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 1 0,0-1 0,0 0 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 1 0,-1-1 0,1 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,1-1 0,-1 1 0,0-1 0,2 2 0,0 4 0,0-1 0,1 0 0,0 0 0,0 0 0,0 0 0,1-1 0,0 1 0,0-1 0,5 5 0,-7-7 0,0-1 0,0 0 0,0 0 0,1 0 0,-1-1 0,0 1 0,1 0 0,-1-1 0,1 0 0,-1 1 0,1-1 0,0 0 0,0 0 0,-1-1 0,1 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 0 0,-1 0 0,1 0 0,0-1 0,0 1 0,0-1 0,0 0 0,-1 1 0,1-1 0,0-1 0,3-1 0,-3 1 0,1-1 0,-1 0 0,0 0 0,0 0 0,0-1 0,0 1 0,-1-1 0,0 0 0,1 0 0,-1 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0-1 0,0 1 0,0 0 0,-1-6 0,1-2 0,0 1 0,0 0 0,0-1 0,-1 1 0,-1 0 0,0 0 0,-1 0 0,-2-12 0,3 22 3,1 0-1,0 0 1,0 1-1,-1-1 0,1 0 1,0 0-1,-1 1 1,1-1-1,-1 0 1,1 1-1,-1-1 1,1 0-1,-1 1 0,1-1 1,-1 1-1,0-1 1,1 1-1,-1-1 1,0 1-1,1 0 1,-1-1-1,0 1 0,1 0 1,-1-1-1,0 1 1,0 0-1,0 0 1,1 0-1,-1 0 1,0 0-1,0 0 0,0 0 1,1 0-1,-1 0 1,0 0-1,0 0 1,0 0-1,1 1 1,-1-1-1,0 0 0,0 0 1,1 1-1,-1-1 1,0 1-1,1-1 1,-1 1-1,0-1 1,0 2-1,-3 0-167,1 1 0,1 0 0,-1 0 0,0 0 0,1 1 0,-1-1 0,1 1 0,-2 3 0,-1 5-6661</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="20402.66">766 2757 24575,'-2'0'0,"0"0"0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 1 0,0-1 0,1 0 0,0 1 0,-1-1 0,1 1 0,0-1 0,0 1 0,-2 2 0,1 1 0,0 0 0,0 0 0,0 0 0,0 0 0,1 1 0,0-1 0,0 0 0,0 11 0,0-8 0,1-1 0,0 1 0,1 0 0,0-1 0,0 1 0,0-1 0,1 1 0,0-1 0,1 0 0,0 0 0,0 0 0,0 0 0,8 11 0,-10-16 0,1 0 0,0 1 0,0-1 0,0 0 0,1 0 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1-1 0,1 0 0,0 1 0,-1-1 0,1 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,0 0 0,3 0 0,-3-2 0,1 1 0,-1 0 0,0-1 0,-1 1 0,1-1 0,0 0 0,0 0 0,-1 0 0,1-1 0,-1 1 0,0 0 0,0-1 0,1 0 0,-2 1 0,1-1 0,2-4 0,4-9 0,-1 0 0,-1-1 0,0 1 0,-1-1 0,-1 0 0,2-20 0,-4 26 20,-1 0 0,-1 0 0,1 1 0,-2-1 0,-1-12 0,2 21-66,0 0-1,-1-1 1,1 1-1,-1 0 1,0 0 0,0 0-1,1 0 1,-1 0-1,-1 1 1,1-1 0,0 0-1,0 0 1,-1 1-1,1-1 1,-1 0-1,1 1 1,-1 0 0,0-1-1,1 1 1,-1 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0-1,0 1 1,0-1 0,0 1-1,0-1 1,0 1-1,-4 0 1,-7-1-6780</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="21209.54">1142 1406 24575,'4'0'0,"10"0"0,8 0 0,7 0 0,1 0 0,0 0 0,-5 0 0,-5 0-8191</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="22285.16">0 1392 24575,'34'-12'0,"-19"6"0,0 1 0,0 0 0,0 1 0,0 1 0,1 0 0,26-1 0,-41 5 0,1-1 0,0 1 0,0-1 0,-1 1 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 1 0,1-1 0,-1 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,-1-1 0,1 1 0,0 0 0,-1 0 0,1-1 0,-1 1 0,0 0 0,0 0 0,0 0 0,1 0 0,-2-1 0,1 1 0,0 2 0,-6 66 0,2-54 0,0-1 0,-1 0 0,-1 0 0,-1 0 0,-9 16 0,-15 37 0,30-67 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1-1 0,1 1 0,0 0 0,-1 0 0,1-1 0,0 1 0,-1 0 0,1-1 0,0 1 0,0-1 0,0 1 0,0-1 0,-1 1 0,1-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,2 0 0,52 1 0,-44-2 0,9 1-106,56-5-1153,-60 1-5567</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="22846.06">529 1490 24575,'-3'0'0,"-1"0"0,1 0 0,-1 1 0,1-1 0,-1 1 0,1 0 0,0 0 0,0 1 0,-1-1 0,1 1 0,0-1 0,0 1 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 1 0,-1-1 0,1 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,1 0 0,-1 1 0,1-1 0,0 0 0,0 0 0,0 1 0,1-1 0,-1 1 0,1-1 0,0 1 0,-1-1 0,2 0 0,-1 1 0,0-1 0,1 1 0,-1-1 0,1 1 0,0-1 0,0 0 0,0 0 0,1 1 0,-1-1 0,1 0 0,0 0 0,0 0 0,0-1 0,0 1 0,4 4 0,3 0 0,0-1 0,0 1 0,1-1 0,0-1 0,0 0 0,0-1 0,1 1 0,0-2 0,0 0 0,-1 0 0,2-1 0,-1 0 0,0-1 0,0 0 0,0-1 0,1 0 0,14-3 0,-22 2 0,-1-1 0,1 0 0,0-1 0,-1 1 0,1 0 0,-1-1 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1-1 0,-1 1 0,0-1 0,0 0 0,0 0 0,0 1 0,-1-1 0,1 0 0,-1 0 0,0-1 0,0 1 0,0-7 0,1-6 0,0 0 0,-1 1 0,-1-1 0,-2-29 0,1 44-44,1-1 0,-1 1 0,1-1 0,-1 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,-1-1 0,1 1 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0-1,0 1 1,0-1 0,-1 0 0,1 1 0,0 0 0,-1-1 0,1 1 0,0 0 0,-1 0 0,0 1 0,1-1 0,-1 0 0,-4 0 0,-9 0-6782</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="23485.68">961 1379 24575,'-3'0'0,"1"0"0,-1 1 0,1 0 0,-1 0 0,1-1 0,0 1 0,0 1 0,-1-1 0,1 0 0,0 1 0,0-1 0,0 1 0,1-1 0,-1 1 0,0 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 1 0,1-1 0,-1 0 0,0 1 0,1-1 0,-1 1 0,0 2 0,-1 8 0,-1 0 0,2 1 0,-1 25 0,2-35 0,0 1 0,1 0 0,-1-1 0,1 1 0,0 0 0,1-1 0,-1 1 0,1-1 0,0 0 0,3 7 0,-5-11 0,1 1 0,-1 0 0,1 0 0,0-1 0,-1 1 0,1 0 0,0-1 0,-1 1 0,1-1 0,0 1 0,0-1 0,0 1 0,0-1 0,-1 0 0,1 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,1 0 0,0 0 0,-1-1 0,1 1 0,0-1 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,0 0 0,1-1 0,-1 1 0,2-3 0,2-2 0,0-1 0,-1 0 0,0 0 0,0-1 0,-1 1 0,0-1 0,0 0 0,-1 1 0,0-1 0,2-15 0,-2 2 0,0 1 0,-2-1 0,-2-23 0,2 43 4,0 0-1,0-1 0,0 1 0,0-1 1,0 1-1,-1-1 0,1 1 1,-1 0-1,1-1 0,-1 1 0,1 0 1,-1-1-1,0 1 0,1 0 1,-1 0-1,0-1 0,0 1 0,0 0 1,0 0-1,0 0 0,0 0 1,-1 0-1,1 1 0,0-1 1,0 0-1,0 1 0,-1-1 0,1 0 1,-1 1-1,1-1 0,0 1 1,-1 0-1,-2-1 0,-2 1-187,1 0-1,-1 1 0,1-1 1,-1 1-1,1 1 0,-1-1 1,-6 3-1,-23 9-6641</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="24050.97">543 1504 24575,'0'-3'0,"3"0"0,2-2 0,8-1 0,9-3 0,5-3 0,1-2 0,-2 1 0,-6 4-8191</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="25148.09">1267 3495 24575,'2'0'0,"4"0"0,5 2 0,5 1 0,5 1 0,2-2 0,-2 0 0,-1-1 0,-5-3 0,-4-1 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="26184.12">626 3481 24575,'3'0'0,"5"-2"0,6-4 0,5 0 0,5-2 0,0 1 0,-2-1 0,-1 0 0,-3 3 0,-4-1 0,-7 1 0,-17 3 0,-6 2-8191</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="26745.62">585 3453 24575,'3'6'0,"0"0"0,0-1 0,0 1 0,-1 0 0,0 1 0,0-1 0,1 7 0,-2-8 0,0-1 0,1-1 0,-1 0 0,0 1 0,1-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1-1 0,-1 1 0,1-1 0,0 1 0,3 1 0,47 23 0,-45-24 0,-1 1 0,1-1 0,0 1 0,-1 0 0,0 1 0,0 0 0,11 10 0,-17-14 0,-1-1 0,1 1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1-1 0,0 1 0,1 0 0,-1 0 0,0-1 0,0 1 0,1 0 0,-1-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,-1 1 0,-53 21 0,49-20 0,-23 6-682,-45 8-1,51-13-6143</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="27593.62">975 3579 24575,'-20'-1'0,"15"0"0,1 1 0,-1 0 0,0 0 0,1 0 0,-1 1 0,1-1 0,-9 3 0,12-2 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 1 0,1-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,1-1 0,-1 1 0,0 0 0,1-1 0,-1 1 0,1 0 0,-1-1 0,1 1 0,0 0 0,0-1 0,0 1 0,0 2 0,-1 2 0,1-1 0,0 1 0,0-1 0,1 1 0,-1-1 0,1 1 0,1-1 0,-1 1 0,1-1 0,-1 0 0,1 0 0,1 0 0,-1 0 0,1 0 0,3 5 0,-3-8 0,-1 1 0,1-1 0,0 0 0,-1 0 0,1 0 0,0 0 0,1 0 0,-1-1 0,0 1 0,0-1 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1-1 0,1 1 0,-1-1 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1-1 0,1 0 0,5-1 0,-5 0 0,0 1 0,1-1 0,-1 0 0,0 0 0,0-1 0,0 1 0,-1-1 0,1 0 0,-1 0 0,1 0 0,-1-1 0,0 1 0,0-1 0,0 1 0,-1-1 0,1 0 0,-1 0 0,0 0 0,0-1 0,-1 1 0,1 0 0,-1-1 0,1-6 0,0 3 0,0-1 0,-1 0 0,0 0 0,0 0 0,-1 0 0,0 0 0,-1 0 0,0 0 0,0 1 0,-1-1 0,-4-11 0,6 19 0,-1-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1 1 0,0-1 0,1 0 0,-1 1 0,0-1 0,1 1 0,-1 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,0 0 0,0 1 0,1-1 0,-1 0 0,0 1 0,1-1 0,-1 1 0,0-1 0,1 1 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,1 0 0,0 1 0,-1-1 0,1 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 1 0,1 0 0,-1-1 0,0 1 0,1 0 0,-1 1 0,-1 39-1365,5-21-5461</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="52464.38">2841 4052 24575,'0'3'0,"0"2"0,0 6 0,2 12 0,4 8 0,0 0 0,-1 0 0,-1 0 0,-1-6-8191</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="53594.71">2743 4540 24575,'5'-1'0,"0"1"0,-1-1 0,1 0 0,-1 0 0,1 0 0,-1-1 0,1 1 0,-1-1 0,0 0 0,0 0 0,0-1 0,0 1 0,0-1 0,0 0 0,3-4 0,-1 1 0,0 0 0,0-1 0,-1 0 0,0 0 0,0 0 0,7-15 0,-12 21 0,0 1 0,0 0 0,0 0 0,1 0 0,-1 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 1 0,0-1 0,8 20 0,2 24 0,1 29-455,-3 1 0,-2 113 0,-6-171-6371</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="53957.37">2910 4915 24575,'2'0'0,"9"0"0,8 0 0,9 0 0,5 0 0,2 0 0,0 0 0,-8-2 0,-8-1-8191</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="54949.49">2465 4428 24575,'-36'-2'0,"25"1"0,1 0 0,-1 1 0,1 0 0,-1 1 0,1 0 0,-20 5 0,28-6 0,0 1 0,1-1 0,0 1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 1 0,0-1 0,0 0 0,1 0 0,-1 1 0,0-1 0,0 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,0 2 0,1 1 0,0-1 0,0 0 0,0 0 0,1 1 0,-1-1 0,1 0 0,0 0 0,0 0 0,2 5 0,3 3 0,0 1 0,0 0 0,1-1 0,15 19 0,-1-7 0,41 35 0,2 3 0,-63-61 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,-1 0 0,1 1 0,-1-1 0,1 1 0,-1-1 0,0 1 0,1 0 0,-1-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,-1 1 0,1 0 0,-1-1 0,1 1 0,-1-1 0,1 0 0,-1 1 0,0-1 0,1 1 0,-1-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,-2 0 0,-4 3 0,1-1 0,-1 0 0,1-1 0,-1 0 0,0 0 0,0 0 0,0-1 0,-11 1 0,6 0-136,-1-1-1,0-1 1,0 0-1,0-1 1,0 0-1,0-1 1,0-1-1,1 0 0,-14-5 1,11-1-6690</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="55721.03">2340 4233 24575,'2'0'0,"1"3"0,2 7 0,1 9 0,1 14 0,2 15 0,2 11 0,1 24 0,3 22 0,0 2 0,-1 2 0,-3-8 0,-2-16 0,-4-21 0,-3-18 0,0-23 0,-2-26 0,-1-13-8191</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="56422.5">4581 3941 24575,'3'0'0,"2"4"0,4 7 0,2 9 0,-1 7 0,1 9 0,-3 13 0,1 7 0,-1-1 0,-3-3 0,1-5 0,-1-11-8191</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="57107.86">4734 4679 24575,'3'-3'0,"-1"1"0,0 0 0,1-1 0,0 1 0,-1 1 0,1-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0 0 0,0 0 0,7-1 0,-3 0 0,-5 1 0,4-2 0,1 1 0,-1 0 0,1 0 0,-1 0 0,1 1 0,-1 0 0,11 0 0,-16 1 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,-1-1 0,1 1 0,0-1 0,0 1 0,0-1 0,0 1 0,-1 0 0,1-1 0,0 1 0,0 0 0,-1-1 0,1 1 0,-1 0 0,2 1 0,-1 1 0,-1 0 0,1-1 0,0 1 0,-1 0 0,1 0 0,-1-1 0,0 1 0,0 0 0,0 0 0,-1 0 0,0 4 0,-10 33 0,8-34 0,1 0 0,0 0 0,0 0 0,0 1 0,1-1 0,0 0 0,0 1 0,0-1 0,1 1 0,0-1 0,1 1 0,0 7 0,2-11-48,-1-1 0,0 0 0,1 1-1,0-1 1,-1-1 0,1 1 0,0 0 0,0-1-1,0 1 1,0-1 0,0 0 0,1 0 0,-1 0-1,0 0 1,0-1 0,1 0 0,4 1 0,-4-1-450,15 3-6328</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="58018.34">4386 4456 24575,'-33'-1'0,"20"-1"0,-1 2 0,1 0 0,-1 0 0,0 2 0,-17 3 0,29-5 0,-1 1 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 1 0,-1-1 0,2 1 0,-1-1 0,0 1 0,0 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 1 0,0-1 0,1 0 0,-1 1 0,0-1 0,1 1 0,-1-1 0,1 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,1 4 0,1 6 0,1 0 0,0-1 0,0 1 0,2-1 0,-1 0 0,1 0 0,1 0 0,0 0 0,8 10 0,14 16 0,33 36 0,-9-12 0,-26-30 0,-13-16 0,0 0 0,-2 1 0,19 33 0,-29-49 0,-1 1 0,0 0 0,1-1 0,-1 1 0,0-1 0,0 1 0,1 0 0,-1 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,-1 0 0,1 0 0,0-1 0,0 1 0,-1-1 0,1 1 0,0 0 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1-1 0,0 2 0,-27 5 0,-36-12 0,61 5 0,-1-1-54,-4 0-39,0 1-1,-1-1 0,1-1 1,0 0-1,1 0 0,-1 0 1,0-1-1,1 0 0,-1-1 1,1 0-1,0 0 0,0 0 1,-11-10-1,8 0-6732</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="58684.8">4275 4247 24575,'8'12'0,"0"0"0,0 0 0,-1 1 0,-1 0 0,0 0 0,-1 1 0,0 0 0,5 27 0,4 7 0,16 53 0,22 131 0,-1 109 0,-19-112 0,-29-210-95,-2-9-117,0-1 0,1 0 1,0 0-1,1 0 1,3 9-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="59571.43">6837 3969 24575,'3'0'0,"0"2"0,0 6 0,-1 6 0,0 8 0,-1 4 0,2 6 0,0 4 0,0-2 0,0-1 0,-2-5 0,0-4 0,0-7-8191</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="60363.56">6684 4651 24575,'12'-1'0,"0"-1"0,-1 0 0,1-1 0,19-6 0,-23 5 0,1 1 0,-1 1 0,1 0 0,-1 0 0,1 1 0,0 0 0,-1 0 0,1 1 0,9 0 0,-16 1 0,-1 0 0,1-1 0,0 1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,-1 1 0,1 0 0,-1-1 0,1 1 0,-1 0 0,1 0 0,-1-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 2 0,-9 64 0,7-55 0,1-7 0,0-1 0,1 1 0,0-1 0,0 1 0,1 0 0,-1-1 0,1 1 0,0-1 0,1 1 0,-1-1 0,1 0 0,3 7 0,4 3 0,0 0 0,17 23 0,-19-29 0,0 0 0,0 1 0,-1 1 0,0-1 0,0 1 0,-1 0 0,4 14 0,-9-24 0,1 0 0,-1 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0-1 0,-1 1 0,1 0 0,0 0 0,-1 0 0,1-1 0,0 1 0,-1 0 0,1-1 0,-1 1 0,0 0 0,1-1 0,-1 1 0,1-1 0,-2 2 0,0-1 0,0-1 0,0 1 0,-1 0 0,1-1 0,0 0 0,0 1 0,0-1 0,0 0 0,-1 0 0,1 0 0,-3-1 0,-57-15 0,62 16 0,-23-7-195,0-1 0,1-1 0,0-1 0,1-1 0,0-1 0,-33-25 0,40 23-6631</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="61072.73">6503 4567 24575,'-6'-3'0,"0"1"0,0-1 0,0 1 0,0 0 0,-1 0 0,1 1 0,-1 0 0,1 0 0,-1 0 0,0 1 0,-6 1 0,-10-3 0,21 2 0,-7-1 0,0 0 0,0 0 0,0 1 0,0 0 0,-10 2 0,18-2 0,0 1 0,0-1 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,1 0 0,-1 0 0,-1 2 0,1-2 0,1 1 0,0 0 0,0-1 0,-1 1 0,1-1 0,0 1 0,0 0 0,0-1 0,1 1 0,-1 0 0,0-1 0,1 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,0-1 0,1 3 0,8 12 0,1 0 0,0-1 0,2 0 0,0-1 0,0-1 0,1 0 0,16 11 0,-11-8 0,0 1 0,-1 1 0,20 24 0,-37-41 0,0 0 0,0 0 0,0 1 0,0-1 0,-1 0 0,1 1 0,0-1 0,0 1 0,-1-1 0,1 0 0,-1 1 0,1-1 0,-1 1 0,0 0 0,1-1 0,-1 1 0,0-1 0,0 1 0,0-1 0,0 1 0,-1 0 0,1-1 0,0 1 0,-1-1 0,1 1 0,-1-1 0,0 3 0,-1-2 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1-1 0,-1 1 0,1-1 0,-1 1 0,0-1 0,1 0 0,-1 0 0,-4 1 0,-9 2 0,0-1 0,0-1 0,-1 0 0,-15-1 0,9-1-1365,4-1-5461</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="61709.54">6364 4442 24575,'0'7'0,"2"12"0,6 17 0,6 21 0,5 17 0,7 23 0,4 9 0,-1-3 0,-3-5 0,-7-14 0,-3-18 0,-4-18 0,-5-17-8191</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">274 3995 24575,'5992'0'0,"-5814"-15"0,349 2 0,-135 3 0,-170-13 0,232-57 0,-373 62 0,1 3 0,0 3 0,118-3 0,243 14-1365,-414 2-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1665.29">1343 241 24575,'0'4'0,"-20"932"0,2-540 0,18-264 0,20 131 0,71 1287 0,-93-1376 0,-1 34 0,32 259 0,-9-223-1365,-20-223-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2909.71">1199 254 24575,'1'-13'0,"0"-2"0,1 1 0,1 0 0,0 1 0,2-2 0,0 2 0,8-16 0,4-5 0,34-46 0,-51 79 0,0 0 0,1 1 0,-1-1 0,1 0 0,-1 0 0,0 1 0,1-1 0,0 0 0,-1 1 0,1-1 0,-1 1 0,1-1 0,0 1 0,-1-1 0,1 1 0,0-1 0,0 1 0,-1 0 0,1-1 0,0 1 0,0 0 0,0-1 0,-1 1 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,1 0 0,0 1 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 1 0,0-1 0,-1 1 0,1 0 0,-1-1 0,0 0 0,1 1 0,-1 0 0,1 2 0,29 65 0,-27-61 0,137 407-1365,-135-394-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4378.08">8854 3645 24575,'15'3'0,"-1"-1"0,1 2 0,-1 0 0,1 0 0,-2 1 0,1 0 0,-1 2 0,0 0 0,20 12 0,7 4 0,197 91 0,-235-113 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 1 0,2-1 0,-2 1 0,1 0 0,-1-1 0,1 1 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,-1-1 0,0 0 0,0-1 0,0 1 0,0-1 0,-1 1 0,1-1 0,0 1 0,-1-1 0,1 1 0,-1-1 0,0 0 0,0 1 0,1-1 0,-1 0 0,0 1 0,0-1 0,0 0 0,0-1 0,-3 3 0,-7 5 0,-1 0 0,0-1 0,0-1 0,-25 11 0,10-6 0,4 2-77,-49 20-1211,58-29-5538</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18155.09">1242 2613 24575,'5'0'0,"6"-1"0,12-5 0,9-2 0,1-1 0,-1 3 0,-7-2 0,-4 2-8191</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18900.66">217 2654 24575,'2'0'0,"4"2"0,2 4 0,4 4 0,1 4 0,-1 0 0,-3 2 0,-1 2 0,0 0 0,-1 1 0,-1 5 0,1 0 0,3 4 0,-2-2 0,3-4 0,0-7-8191</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="19690.7">549 2708 24575,'-1'-1'0,"-1"1"0,1 0 0,-2 0 0,2 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 1 0,0-1 0,-1 0 0,1 1 0,0-1 0,-1 1 0,1-1 0,0 1 0,0 0 0,0 0 0,-1-1 0,1 1 0,0 0 0,0-1 0,0 1 0,0 0 0,-1 0 0,2 0 0,-1 1 0,0-1 0,0 0 0,1 0 0,-1 1 0,1-1 0,-1 0 0,1 1 0,-1-1 0,1 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0-2 0,0 1 0,0 1 0,1-1 0,-1 1 0,0-1 0,2 2 0,0 4 0,1-1 0,0-1 0,0 1 0,0 0 0,0 0 0,1-1 0,0 0 0,0 0 0,6 5 0,-8-7 0,0-1 0,0-1 0,0 1 0,1 0 0,-1-1 0,0 1 0,1 0 0,0-1 0,0 0 0,-1 1 0,1-1 0,0 0 0,0 0 0,-1-1 0,1 1 0,0-1 0,0 1 0,1-1 0,-1 0 0,0 0 0,-1 0 0,1 0 0,0-1 0,0 1 0,0-1 0,0 0 0,-1 1 0,2-1 0,-1-1 0,3-1 0,-3 1 0,1-1 0,-1 0 0,0 1 0,1-1 0,-1-1 0,0 1 0,-1-1 0,0 0 0,1 0 0,-1 1 0,0-1 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0-1 0,0 2 0,0-1 0,-1-6 0,1-1 0,1 0 0,-1 0 0,0 0 0,-1 0 0,-1 1 0,0-1 0,-2 0 0,-1-11 0,3 21 3,1 0-1,0 0 1,0 1-1,-1 0 0,1-1 1,0 0-1,-1 1 1,1-1-1,-1 0 1,1 1-1,-1-1 1,1 0-1,-1 1 0,1-1 1,-1 1-1,0-1 1,1 1-1,-1-1 1,0 1-1,1 0 1,-1-1-1,0 1 0,1 0 1,-1-1-1,0 1 1,0 0-1,0 0 1,1 0-1,-1 0 1,0 0-1,0 0 0,0 0 1,1 0-1,-1 0 1,-1 0-1,1 0 1,0 0-1,1 1 1,-1-1-1,0 0 0,0 0 1,1 1-1,-1-1 1,0 1-1,1-1 1,-1 1-1,0-1 1,0 2-1,-3 0-167,1 1 0,1-1 0,-1 1 0,0 0 0,0 1 0,0-1 0,1 1 0,-2 2 0,-1 6-6661</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="20402.66">795 2654 24575,'-3'0'0,"1"0"0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-2 0 0,1 0 0,1 0 0,0 1 0,-1-1 0,1 1 0,0-1 0,0 1 0,-2 2 0,1 1 0,0 0 0,0-1 0,0 1 0,0 0 0,1 1 0,0-1 0,0-1 0,-1 12 0,1-8 0,1-2 0,0 2 0,1 0 0,1-2 0,-1 2 0,0-1 0,1 1 0,0-2 0,1 1 0,0 0 0,0-1 0,0 1 0,9 11 0,-11-17 0,1 1 0,0 1 0,0-1 0,0 0 0,1 0 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1-1 0,2 0 0,-1 1 0,-1-1 0,1 0 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,1-1 0,-1 0 0,3 0 0,-3-1 0,1 0 0,-1 0 0,0-1 0,-1 1 0,2-1 0,-1 0 0,0 0 0,-1 0 0,1-1 0,-1 1 0,0 0 0,0-1 0,1 1 0,-2 0 0,1-1 0,3-4 0,3-8 0,-1-1 0,-1 0 0,1 0 0,-2 0 0,-1 0 0,2-20 0,-4 25 20,-1 1 0,-1-1 0,1 2 0,-2-2 0,-1-11 0,2 20-66,0 0-1,-1-1 1,1 1-1,-1 0 1,0 0 0,0 0-1,1 1 1,-1-1-1,-1 1 1,1-1 0,0 0-1,0 0 1,-1 1-1,1-1 1,-1 0-1,1 1 1,-1 0 0,-1-1-1,2 1 1,-1 0-1,0 0 1,0 0 0,0 0-1,0 0 1,0 0-1,0 1 1,0 0 0,0 0-1,0-1 1,0 1-1,-5 0 1,-6-1-6780</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="21209.54">1185 1353 24575,'4'0'0,"10"0"0,9 0 0,7 0 0,1 0 0,0 0 0,-5 0 0,-5 0-8191</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="22285.16">0 1340 24575,'35'-12'0,"-19"7"0,-1 0 0,1 0 0,0 1 0,-1 1 0,2 0 0,26 0 0,-42 3 0,1 0 0,0 1 0,0-1 0,0 1 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 1 0,1-1 0,-1 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,-1-1 0,1 1 0,0-1 0,-1 1 0,1-1 0,-1 1 0,0 0 0,0 0 0,0 0 0,1 0 0,-2-1 0,1 1 0,0 2 0,-6 63 0,2-52 0,0 0 0,-1-1 0,-2 1 0,0-1 0,-9 16 0,-17 36 0,32-66 0,1 1 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,0 0 0,2 0 0,-2 0 0,1 0 0,-1-1 0,1 1 0,0 0 0,-1 0 0,1-1 0,0 1 0,-1 0 0,1-1 0,0 1 0,0-1 0,0 0 0,0 0 0,-1 1 0,1-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,2 0 0,54 1 0,-45-2 0,9 1-106,57-4-1153,-61 0-5567</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="22846.06">549 1434 24575,'-3'0'0,"-2"0"0,2 0 0,-1 1 0,1-1 0,-1 1 0,1 0 0,0 0 0,0 1 0,-2-1 0,2 1 0,0-1 0,0 1 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 1 0,1 0 0,0-1 0,0 1 0,0 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 1 0,1-1 0,-1 1 0,1-1 0,0 0 0,-1 0 0,2 0 0,-1 1 0,0-1 0,1 1 0,-1-1 0,1 1 0,0-2 0,0 1 0,0 0 0,1 1 0,-1-1 0,1 0 0,0 0 0,0 0 0,0-1 0,0 0 0,5 5 0,2 0 0,0-1 0,1 0 0,0 0 0,0-1 0,1 0 0,-1-1 0,2 0 0,-1-1 0,0 0 0,0 0 0,1-1 0,0 0 0,-1-1 0,0 0 0,1-1 0,0 0 0,15-3 0,-23 2 0,0-1 0,0 0 0,0-1 0,-1 1 0,1 0 0,-1 0 0,0-1 0,0 0 0,1 0 0,-1 0 0,-1 0 0,1-1 0,-1 1 0,0 0 0,0-1 0,0 0 0,0 1 0,-1-1 0,1 0 0,-1 0 0,0 0 0,0 0 0,0-7 0,2-5 0,-1-1 0,-1 2 0,-1-1 0,-2-29 0,1 43-44,1 0 0,-1 0 0,1-1 0,-2 0 0,1 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0-1,0 1 1,0-1 0,-1 0 0,0 1 0,1 0 0,-1-1 0,1 1 0,0 0 0,-1 0 0,0 1 0,1-1 0,-1 0 0,-5 1 0,-8-1-6782</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="23485.68">997 1327 24575,'-3'0'0,"1"0"0,-1 1 0,0 0 0,0 0 0,1-1 0,0 1 0,0 1 0,-1-1 0,1 0 0,0 1 0,0-1 0,0 1 0,1-1 0,-1 1 0,0 0 0,-1 0 0,2 0 0,-1 0 0,1-1 0,0 1 0,0 0 0,-1 0 0,1 1 0,1-1 0,-1 0 0,0 1 0,1-1 0,-1 1 0,0 1 0,-1 9 0,-1 0 0,2 0 0,-1 25 0,2-35 0,0 2 0,1 0 0,-1-1 0,1 1 0,0-1 0,1 0 0,-1 1 0,1-1 0,0 0 0,3 6 0,-5-10 0,1 1 0,-1 0 0,1 0 0,0-1 0,-1 1 0,1 0 0,0-1 0,-1 1 0,1-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,-1 0 0,1 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,1 0 0,0 0 0,-1-1 0,1 1 0,0-1 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,2 0 0,-1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,2-3 0,2-2 0,0-1 0,-1 0 0,1 1 0,-1-2 0,-1 1 0,0 0 0,0-1 0,-1 1 0,0-1 0,2-14 0,-2 2 0,1 1 0,-3-1 0,-3-23 0,3 42 4,0 0-1,0-1 0,0 1 0,0 0 1,0 0-1,-1-1 0,1 1 1,-1 0-1,1-1 0,-1 1 0,1 0 1,-1-1-1,0 1 0,1 0 1,-1 0-1,0-1 0,0 1 0,0 0 1,0 0-1,0 0 0,0 0 1,-1 0-1,1 1 0,0-1 1,0 0-1,0 1 0,-1-1 0,1 1 1,-1 0-1,1-1 0,0 1 1,-2 0-1,-1-1 0,-2 1-187,1 0-1,-1 1 0,0-1 1,0 1-1,1 0 0,-1 0 1,-7 3-1,-23 9-6641</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="24050.97">563 1448 24575,'0'-3'0,"3"0"0,3-2 0,7-1 0,10-2 0,5-4 0,1-1 0,-2 0 0,-6 5-8191</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="25148.09">1314 3364 24575,'2'0'0,"5"0"0,4 2 0,6 1 0,4 1 0,3-2 0,-2 0 0,-1-1 0,-6-3 0,-3-1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="26184.12">649 3351 24575,'3'0'0,"6"-2"0,5-4 0,6 0 0,5-1 0,0 0 0,-2-1 0,-2 0 0,-2 4 0,-4-2 0,-8 1 0,-18 3 0,-5 2-8191</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="26745.62">607 3324 24575,'3'6'0,"0"-1"0,0 0 0,0 1 0,-1 0 0,0 0 0,0 0 0,2 7 0,-3-8 0,0-2 0,1 0 0,-1 0 0,0 1 0,1-1 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,1-1 0,-1 1 0,2-1 0,-1 1 0,3 1 0,49 22 0,-47-23 0,-1 1 0,2-2 0,-1 2 0,-1 0 0,1 1 0,-1 0 0,11 9 0,-16-13 0,-2-1 0,1 1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,-1 1 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1-1 0,-1 1 0,2 0 0,-1 0 0,0-1 0,0 1 0,1 0 0,-1-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,-1 1 0,-55 20 0,51-19 0,-24 6-682,-47 7-1,53-12-6143</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="27593.62">1011 3445 24575,'-20'-1'0,"14"0"0,2 1 0,-1 0 0,0 0 0,1 0 0,-1 1 0,0-1 0,-8 3 0,12-2 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 1 0,0-1 0,1 0 0,0 1 0,0-1 0,0-1 0,0 2 0,1-1 0,-1 1 0,0 0 0,1-1 0,-1 1 0,1 0 0,-1-1 0,1 1 0,0 0 0,0-1 0,0 1 0,0 2 0,-1 1 0,1 0 0,0 1 0,0-1 0,1 1 0,-1-2 0,1 2 0,1-1 0,-1 1 0,1-1 0,-1-1 0,1 1 0,2 0 0,-2 0 0,1 0 0,3 4 0,-3-7 0,-1 1 0,1-1 0,0 0 0,-1 0 0,2 0 0,-1 0 0,1 0 0,-1-1 0,0 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1-1 0,1 1 0,-1-1 0,1 0 0,0 0 0,0 0 0,0 0 0,-1-1 0,1 0 0,5-1 0,-5 0 0,1 2 0,0-2 0,-1 0 0,0 0 0,0-1 0,0 1 0,-1-1 0,2 0 0,-2 0 0,1 0 0,-1 0 0,0 0 0,0-1 0,0 1 0,-1-1 0,1 0 0,0 0 0,-1 0 0,0 0 0,-1 0 0,1 0 0,-1-1 0,1-5 0,0 2 0,0-1 0,-1 1 0,0-1 0,0 0 0,-1 1 0,0-1 0,-1 0 0,0 1 0,0 0 0,-1-1 0,-4-10 0,6 18 0,-1-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,-1-1 0,1 1 0,-1 1 0,1-1 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1 1 0,0-1 0,1 0 0,-1 1 0,0-1 0,1 1 0,-1 0 0,0 0 0,-1-1 0,2 1 0,-1 0 0,0 0 0,0 1 0,1-1 0,-1 0 0,0 1 0,1-1 0,-1 1 0,0-1 0,1 1 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 1 0,1 0 0,-1-1 0,0 1 0,1 0 0,-1 1 0,-1 37-1365,5-20-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="52464.38">2947 3900 24575,'0'3'0,"0"2"0,0 6 0,2 11 0,4 8 0,0 0 0,0-1 0,-2 1 0,-1-6-8191</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="53594.71">2845 4370 24575,'5'-1'0,"1"1"0,-2-1 0,1 0 0,-1 0 0,1 0 0,-1-1 0,2 1 0,-2 0 0,0-1 0,0 0 0,0-1 0,0 1 0,1-1 0,-1 0 0,3-4 0,-1 2 0,0-1 0,1-1 0,-2 0 0,0 1 0,0-1 0,8-14 0,-13 20 0,0 1 0,0 0 0,0 0 0,1 0 0,-1 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 1 0,0-1 0,8 19 0,3 23 0,0 29-455,-3 0 0,-1 109 0,-7-165-6371</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="53957.37">3018 4731 24575,'3'0'0,"8"0"0,9 0 0,9 0 0,5 0 0,2 0 0,1 0 0,-9-2 0,-9-1-8191</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="54949.49">2557 4262 24575,'-37'-2'0,"25"1"0,2 0 0,-2 1 0,2 0 0,-1 1 0,0 0 0,-20 5 0,29-6 0,0 1 0,1-1 0,0 1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,-2 0 0,2 1 0,0-1 0,0 0 0,1 0 0,-1 1 0,0-1 0,0 0 0,1 0 0,-1 1 0,1-1 0,-1 1 0,0 2 0,1 1 0,0-1 0,0 0 0,0-1 0,1 2 0,-1-1 0,1 0 0,0 0 0,0 0 0,2 4 0,4 4 0,-1 0 0,0 1 0,1-2 0,16 19 0,-1-7 0,42 34 0,3 3 0,-66-59 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,-1 0 0,1 1 0,-1-1 0,1 1 0,-1-1 0,0 1 0,1 0 0,-1-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,-1 0 0,1 1 0,-1-1 0,1 1 0,-1-1 0,1 0 0,-1 1 0,0-1 0,1 1 0,-1-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,-2 0 0,-5 2 0,2 0 0,-1 0 0,1-1 0,-2 0 0,1 0 0,0 0 0,0-1 0,-12 1 0,6 0-136,0-1-1,-1-1 1,1 0-1,-1-1 1,1 0-1,0-1 1,-1-1-1,2 0 0,-15-5 1,11 0-6690</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="55721.03">2427 4075 24575,'2'0'0,"1"3"0,3 6 0,0 9 0,1 14 0,2 14 0,3 11 0,0 23 0,4 21 0,-1 2 0,0 2 0,-4-8 0,-1-15 0,-5-20 0,-3-18 0,0-22 0,-2-25 0,-1-12-8191</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="56422.5">4752 3794 24575,'3'0'0,"2"3"0,4 8 0,3 8 0,-2 7 0,2 9 0,-4 12 0,1 7 0,0-1 0,-4-3 0,1-5 0,-1-10-8191</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="57107.86">4911 4504 24575,'3'-3'0,"-1"1"0,0 0 0,1-1 0,0 1 0,-1 1 0,1 0 0,0-1 0,0 1 0,1-1 0,-1 1 0,0 0 0,0 0 0,7-1 0,-3 0 0,-4 1 0,3-2 0,1 1 0,-1 0 0,2 0 0,-2 0 0,1 1 0,-1 0 0,12 1 0,-17 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,-1-1 0,1 1 0,0-1 0,0 1 0,0-1 0,0 1 0,-1 0 0,1-1 0,0 1 0,0 0 0,-1-1 0,2 1 0,-2 0 0,2 1 0,-1 1 0,-1 0 0,1-1 0,0 1 0,-1 0 0,1-1 0,-1 0 0,0 1 0,0 0 0,0 0 0,-1 0 0,0 4 0,-11 31 0,9-32 0,1 0 0,0-1 0,0 1 0,0 1 0,1-1 0,0 0 0,0 0 0,0 0 0,1 1 0,0-1 0,1 0 0,0 8 0,2-11-48,-1-1 0,0 0 0,1 0-1,0 0 1,-1-1 0,1 1 0,1 0 0,-1-1-1,0 1 1,0-1 0,0 0 0,1 0 0,-1 0-1,0 0 1,0-1 0,2 0 0,3 1 0,-4-1-450,16 3-6328</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="58018.34">4550 4289 24575,'-35'-1'0,"22"-1"0,-2 2 0,2 0 0,-2 0 0,1 2 0,-18 3 0,30-5 0,-2 1 0,2 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 1 0,-1-1 0,2 1 0,-1-1 0,0 1 0,-1 0 0,1-1 0,1 1 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 1 0,0-1 0,1 0 0,-1 1 0,0-1 0,1 0 0,-1 0 0,1 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,1 4 0,1 5 0,1 1 0,0-2 0,0 2 0,3-2 0,-2 1 0,1 0 0,1-1 0,0 1 0,9 9 0,14 16 0,34 34 0,-9-11 0,-27-30 0,-13-14 0,-1-1 0,-2 2 0,21 31 0,-31-47 0,-1 1 0,0 0 0,1-1 0,-1 1 0,0-1 0,0 1 0,1 0 0,-1 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0 0 0,0-1 0,0 1 0,-1 0 0,1 0 0,0-1 0,0 1 0,-1-1 0,1 1 0,0 0 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1-1 0,-1 2 0,-27 5 0,-37-12 0,63 5 0,-1-1-54,-5 0-39,1 1-1,-1-1 0,1-1 1,-1 0-1,2 0 0,-1 0 1,-1-1-1,2 1 0,-1-2 1,1 0-1,-1 0 0,1 0 1,-12-9-1,9-1-6732</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="58684.8">4434 4088 24575,'9'12'0,"-1"-1"0,0 1 0,0 0 0,-2 1 0,0-1 0,-1 2 0,0-1 0,6 27 0,3 6 0,17 51 0,23 126 0,-1 106 0,-20-109 0,-29-202-95,-3-8-117,0-1 0,1-1 1,0 1-1,1 0 1,3 8-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="59571.43">7092 3821 24575,'3'0'0,"0"1"0,0 7 0,-1 6 0,0 7 0,-1 4 0,3 6 0,-1 3 0,0-1 0,0-1 0,-2-5 0,0-4 0,0-7-8191</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="60363.56">6933 4477 24575,'13'-1'0,"-1"-1"0,0 0 0,0-1 0,20-5 0,-24 4 0,2 1 0,-2 1 0,1 0 0,0 0 0,0 1 0,0 0 0,0 0 0,0 1 0,10 0 0,-17 1 0,-1 0 0,1-1 0,0 1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,0 1 0,0-1 0,0 1 0,1-1 0,-1 0 0,0 0 0,-1 1 0,1 0 0,-1-1 0,1 1 0,-1 0 0,1 0 0,-1-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 2 0,-10 61 0,8-53 0,1-6 0,0-1 0,1 1 0,0-1 0,0 0 0,1 1 0,-1-1 0,1 1 0,0-1 0,1 0 0,-1 0 0,2 0 0,2 7 0,4 2 0,0 0 0,18 23 0,-19-28 0,-1-1 0,0 2 0,-1 1 0,1-2 0,-1 2 0,-1-1 0,4 14 0,-9-23 0,1 0 0,-1 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0-1 0,-1 1 0,1 0 0,0 0 0,-1 0 0,1-1 0,0 1 0,-1 0 0,1-1 0,-1 1 0,0 0 0,1-1 0,-1 1 0,1-1 0,-2 2 0,0-2 0,0 0 0,0 1 0,-1 0 0,1-1 0,0 0 0,-1 1 0,1-1 0,0 0 0,-1 0 0,1 0 0,-3-1 0,-59-14 0,64 15 0,-24-7-195,0 0 0,1-2 0,0-1 0,2 0 0,-1-2 0,-34-23 0,41 21-6631</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="61072.73">6745 4396 24575,'-6'-3'0,"0"1"0,0-1 0,0 2 0,-1-1 0,0 0 0,1 1 0,-1 0 0,0 0 0,0 0 0,0 1 0,-7 1 0,-9-3 0,20 2 0,-6-1 0,0 0 0,-1 0 0,1 1 0,0 0 0,-11 2 0,19-2 0,0 1 0,0-1 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,-1 1 0,1 0 0,0 0 0,1 0 0,-1-1 0,-1 3 0,1-2 0,1 1 0,0 0 0,0-1 0,-1 1 0,1-1 0,0 1 0,0 0 0,0-1 0,1 1 0,-1 0 0,0-1 0,1 1 0,-1-1 0,1 0 0,-1 0 0,1 1 0,0-1 0,1 3 0,9 12 0,0-1 0,1-1 0,1 1 0,1-2 0,-1 0 0,2-1 0,16 11 0,-12-7 0,1 0 0,-1 2 0,20 22 0,-38-39 0,0 0 0,0 0 0,0 1 0,0-1 0,-1 0 0,2 1 0,-1-1 0,0 1 0,-1-2 0,1 1 0,-1 1 0,1-1 0,-1 1 0,0 0 0,1-1 0,-1 1 0,0-1 0,0 1 0,0-1 0,0 1 0,-1 0 0,1-1 0,0 1 0,-1-1 0,1 1 0,-1-1 0,0 2 0,-2-1 0,1 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1-1 0,-1 1 0,1-1 0,-1 1 0,0-1 0,0 0 0,0 0 0,-4 1 0,-9 1 0,-1 0 0,0-1 0,0 0 0,-16-1 0,9-1-1365,4-1-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="61709.54">6601 4276 24575,'0'7'0,"2"11"0,7 17 0,5 19 0,6 18 0,7 21 0,4 9 0,-1-3 0,-3-5 0,-7-13 0,-4-17 0,-3-18 0,-6-16-8191</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -1362,7 +1363,7 @@
       <inkml:brushProperty name="height" value="0.035" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 2840 24575,'76'1'0,"-31"1"0,-1-2 0,0-2 0,72-12 0,-100 9 0,1-2 0,-1 1 0,-1-2 0,1 0 0,23-17 0,-4 3 0,190-96 0,-222 116 0,10-5 0,-1 0 0,1 1 0,0 1 0,1 0 0,21-5 0,124-34 0,-39 10 0,-110 31 0,-1-1 0,1 1 0,-1-2 0,0 1 0,0-1 0,-1-1 0,0 0 0,0 0 0,8-8 0,11-12 0,26-33 0,-15 16 0,-28 30 0,1 0 0,14-28 0,-17 28 0,0-1 0,1 1 0,18-19 0,4 0 0,-2-2 0,-1-1 0,-1-1 0,31-58 0,-31 30 0,-22 49 0,1 0 0,1 0 0,16-27 0,66-107 0,-71 117 0,17-34 0,-19 34 0,2 0 0,1 1 0,1 1 0,1 0 0,33-34 0,131-105 0,-151 140 0,42-27 0,-76 56 0,17-11 0,-1 0 0,0-2 0,0 0 0,-1-1 0,-1 0 0,0-1 0,-1-1 0,-1 0 0,-1 0 0,14-26 0,-19 30 0,0 0 0,1 1 0,0 0 0,1 0 0,0 1 0,1 0 0,0 0 0,0 1 0,1 1 0,0-1 0,1 2 0,0-1 0,0 1 0,23-10 0,-22 9 0,0 0 0,0-1 0,-1-1 0,0 0 0,-1 0 0,0-1 0,-1-1 0,0 0 0,8-15 0,-3 8 0,0 0 0,22-23 0,-18 28 0,1 1 0,0 1 0,1 1 0,1 1 0,-1 0 0,1 2 0,30-9 0,-51 17 0,91-27 0,129-20 0,-91 22 0,-87 15 0,43-7 0,39 4 0,-3-1 0,-88 9 0,-1-1 0,1-1 0,-1-2 0,32-13 0,39-10 0,24-6 0,-70 20 0,91-18 0,-140 35 0,327-59 0,-307 57 0,-1 0 0,1 2 0,-1 1 0,39 6 0,5 7 0,-53-9 0,0 0 0,0-1 0,23 0 0,-4 1 0,-32-3 0,1 0 0,0 0 0,-1 0 0,1-1 0,0 0 0,-1 0 0,1-1 0,6-1 0,-10 2 0,-1-1 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0-1 0,0 1 0,0-1 0,0 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1-1 0,1 0 0,-1 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 1 0,-1-1 0,1 0 0,-1 1 0,0-3 0,-9-36 0,10 40 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0-1 0,-1 27 0,0 18 0,0-22 0,1 0 0,3 24 0,4-64 0,-1-13 0,-5-46 0,-2 47 0,1 27 0,0 11 0,0 14 0,0 51 0,1-48 0,0-20 0,0-7 0,5-23 0,-2 23 0,-2 17 0,-2 24 0,0-38 0,-1-24 0,1-127 0,-1 229 0,3 87 0,11-237 0,-13 53 0,2-15 0,-4 59 0,-6 25-1365,5-39-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 2729 24575,'81'1'0,"-33"1"0,-1-2 0,0-2 0,77-11 0,-107 8 0,1-2 0,-1 1 0,-1-1 0,1-1 0,24-16 0,-3 3 0,202-93 0,-237 113 0,11-6 0,-1 0 0,0 1 0,1 1 0,1 1 0,23-6 0,131-32 0,-41 9 0,-117 30 0,-2-1 0,2 2 0,-1-3 0,-1 1 0,1-1 0,-2-1 0,1 1 0,-1-1 0,9-8 0,12-11 0,28-31 0,-17 14 0,-29 30 0,1-1 0,14-26 0,-17 26 0,-1 0 0,2 0 0,19-17 0,4-1 0,-2-2 0,-1 0 0,-2-2 0,34-55 0,-33 28 0,-24 48 0,2-1 0,0 1 0,18-26 0,70-104 0,-76 114 0,18-34 0,-20 34 0,2-1 0,2 1 0,0 1 0,1 0 0,36-32 0,139-102 0,-160 136 0,44-27 0,-81 54 0,18-11 0,-1 1 0,0-3 0,0 1 0,-1-2 0,-1 1 0,0-2 0,-1 0 0,-2 0 0,0-1 0,15-24 0,-21 28 0,1 1 0,0 0 0,1 1 0,0-1 0,1 1 0,0 1 0,1-1 0,-1 2 0,2 0 0,0-1 0,0 3 0,1-2 0,0 1 0,24-9 0,-23 8 0,0 0 0,0 0 0,-2-2 0,1 1 0,-1-1 0,-1-1 0,0 0 0,0-1 0,8-14 0,-3 8 0,0 0 0,23-23 0,-19 28 0,1 1 0,1 0 0,0 1 0,1 2 0,0-1 0,0 2 0,32-8 0,-54 16 0,98-26 0,136-19 0,-96 21 0,-94 14 0,47-6 0,41 4 0,-3-2 0,-93 9 0,-2 0 0,1-2 0,-1-2 0,34-12 0,42-10 0,26-5 0,-76 18 0,98-16 0,-149 33 0,348-57 0,-327 55 0,-1 1 0,0 1 0,0 1 0,42 5 0,4 8 0,-56-9 0,1-1 0,-1 0 0,25 0 0,-5 1 0,-34-3 0,2 0 0,-1 0 0,-1 0 0,2-1 0,-1 0 0,0 0 0,0-1 0,7-1 0,-11 2 0,-1-1 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1-1 0,-1 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,-1-1 0,1 1 0,-1-1 0,1 1 0,-1-1 0,1 0 0,-1 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,-1-1 0,1 0 0,-1 1 0,0-3 0,-10-34 0,11 38 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0-1 0,-1 26 0,0 18 0,0-22 0,1 0 0,3 23 0,5-61 0,-2-13 0,-5-44 0,-2 45 0,1 26 0,0 11 0,0 13 0,0 49 0,1-46 0,0-19 0,0-7 0,6-22 0,-3 22 0,-2 17 0,-2 22 0,0-36 0,-1-23 0,1-122 0,-1 220 0,3 83 0,12-227 0,-14 51 0,2-15 0,-4 57 0,-7 24-1365,6-37-5461</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -1443,20 +1444,20 @@
       <inkml:brushProperty name="height" value="0.035" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">154 697 24575,'191'11'0,"-42"0"0,1500-48 0,-878-1 0,-1 57 0,-677-10 0,-12-1 0,157-5 0,-221-6 0,-1 0 0,0-1 0,0-1 0,0-1 0,24-12 0,27-9 0,13 4 0,1 2 0,83-9 0,-162 30 0,0 0 0,1-1 0,-1 1 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 1 0,-1-1 0,0 1 0,1 0 0,-1-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,-1-1 0,1 1 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,-1 0 0,1 3 0,1 8 0,0 1 0,-1 0 0,-1 0 0,0 0 0,-2 15 0,0 2 0,-150 1767 0,12-551 0,130-1078 0,-4 404 0,19-465 0,5 174 0,-11 138 0,1-415-114,0-4 58,1 0-1,-1 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 1,-1 0-1,1-1 0,0 1 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1-1 1,0 1-1,-1 0 0,1-1 0,-2 2 0,-4-1-6769</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1865.6">28 669 24575,'-4'498'0,"3"315"0,-8 173 0,14 338 0,6-562 0,-13-498 0,-12-62 0,0-34 0,14-166 0,0 0 0,0 0 0,0 0 0,0 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,1-1 0,-1 1 0,1-1 0,0 1 0,-1-1 0,1 0 0,0 1 0,0-1 0,-1 0 0,1 0 0,0 0 0,0-1 0,0 1 0,0 0 0,5 0 0,6 1 0,1 0 0,0-1 0,0-1 0,19-1 0,0 0 0,1461-4 0,-1446 5 0,1-3 0,-1-2 0,70-15 0,-73 10 0,1 3 0,1 1 0,-1 3 0,1 1 0,50 6 0,228 41 0,-1-1 0,-279-42 0,0-2 0,77-12 0,88-26 0,-142 24 0,236-73 0,-184 48 0,-70 25 0,1 2 0,80-7 0,105 5 0,-155 11 0,-72 3-170,0-1-1,0 0 0,0 0 1,0 0-1,0-1 0,-1-1 1,11-3-1,4-8-6655</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2892.01">182 725 24575,'29'-35'0,"-1"0"0,-2-2 0,-1-1 0,29-61 0,-14 26 0,34-76 0,11-18 0,-85 167 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,1 1 0,-1-1 0,0 1 0,0 0 0,1-1 0,-1 1 0,0-1 0,1 1 0,-1 0 0,0-1 0,1 1 0,-1 0 0,0-1 0,1 1 0,-1 0 0,1 0 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,8 18 0,-3 34 0,-6-50 0,2 341 0,-3-206 0,1-129-113,0-5 16,0-1 1,0 1 0,0 0-1,0-1 1,0 1 0,0 0 0,-1-1-1,1 1 1,-1-1 0,0 1-1,0-1 1,-1 3 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3233.91">391 460 24575,'2'0'0,"6"-3"0,3 0 0,3 0 0,1 1 0,1 0 0,2 1 0,2 1 0,6 0 0,5-3 0,2 0 0,-2-2 0,-7-1-8191</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3903.64">794 195 24575,'2'47'0,"10"58"0,2 32 0,-12-106 0,-1-9 0,-1 0 0,-3 34 0,3-55 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1-1 0,1 1 0,-1 0 0,0 0 0,1-1 0,-1 1 0,0 0 0,0-1 0,1 1 0,-1-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,1 0 0,-1-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,1 1 0,-1-1 0,0 0 0,0 0 0,-4-3 0,0 0 0,0 0 0,0 0 0,1-1 0,0 0 0,0 1 0,-6-12 0,8 14 4,1-1 0,-1 1-1,1-1 1,0 1-1,0-1 1,0 0 0,0 1-1,1-1 1,-1 0 0,1 0-1,0 1 1,-1-1-1,1 0 1,1 0 0,-1 0-1,0 1 1,1-1 0,-1 0-1,1 0 1,0 1-1,0-1 1,0 0 0,0 1-1,0-1 1,1 1 0,-1 0-1,1-1 1,-1 1-1,1 0 1,0 0 0,0 0-1,4-3 1,0 1-128,0 1 0,0-1 1,1 1-1,-1 1 0,1-1 0,-1 1 1,1 1-1,0-1 0,0 1 0,0 0 1,14 0-1,6 1-6702</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4415.61">962 362 24575,'29'-5'0,"-25"3"0,1 1 0,-1 0 0,1 0 0,0 0 0,-1 1 0,9 0 0,-11 0 0,-1 0 0,0 1 0,0-1 0,1 1 0,-1-1 0,0 1 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 0 0,0 0 0,0 0 0,1 1 0,-1 1 0,1 15 0,-1 1 0,-1 0 0,0 0 0,-2 0 0,0 0 0,-1-1 0,-7 19 0,-2 18 0,12-53 0,1 0 0,-1-1 0,1 1 0,0 0 0,-1 0 0,1 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,1 0 0,-1-1 0,1 1 0,-1 0 0,1 0 0,-1-1 0,1 1 0,0 0 0,0-1 0,0 1 0,1 1 0,0-2 0,-1 0 0,1 0 0,0 0 0,-1-1 0,1 1 0,-1-1 0,1 1 0,0-1 0,0 0 0,-1 1 0,1-1 0,0 0 0,0 0 0,-1 0 0,1-1 0,0 1 0,-1 0 0,4-1 0,5-2 0,0-1 0,0 0 0,0 0 0,0-1 0,-1 0 0,10-7 0,9-9-682,43-43-1,-48 40-6143</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4745.51">1101 529 24575,'2'0'0,"3"0"0,4 0 0,2 0 0,2-2 0,3-4 0,6 0 0,2-1 0,-1-3 0,-2-1 0,-5 0-8191</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5356.11">1407 390 24575,'-3'78'0,"1"-49"0,1 1 0,1 0 0,9 55 0,-9-85 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,1 1 0,-1-1 0,0 0 0,0 1 0,0-1 0,1 0 0,-1 0 0,0 1 0,0-1 0,1 0 0,-1 0 0,0 1 0,1-1 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,0 0 0,13-16 0,8-29 0,45-175 0,-55 195 0,-12 25 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 1 0,0-1 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,2 49 0,-13 137 0,14-171-37,3-13 129,10-19-1512,2-9-5406</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5838.35">1672 390 24575,'-1'47'0,"0"-21"0,1 0 0,1 0 0,8 45 0,-2-56 0,2-20 0,7-27 0,28-91 0,-25 66 0,2 2 0,51-97 0,-71 150 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,1 0 0,-1 1 0,0-1 0,1 1 0,0-1 0,-1 1 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,2-1 0,-2 2 0,-1 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,1 0 0,-1 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0 0 0,0 0 0,-1-1 0,1 1 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 1 0,5 10 0,0 1 0,-1 0 0,-1 0 0,5 18 0,-4-12 0,1 2 0,6 22 0,2 0 0,1-1 0,2-1 0,41 71 0,-44-96-1365,-2-7-5461</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6770.58">2256 307 24575,'-2'-1'0,"-1"1"0,0 0 0,0 0 0,1 0 0,-1 0 0,0 1 0,0-1 0,1 1 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 1 0,0-1 0,0 1 0,-1-1 0,-2 4 0,3-1 0,0 0 0,0 1 0,0-1 0,0 1 0,1-1 0,0 1 0,0 0 0,0-1 0,1 1 0,-1 9 0,-2 43 0,5 70 0,-2-127 0,0 1 0,-1-1 0,1 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 1 0,1-1 0,-1 0 0,0 1 0,0-1 0,0 0 0,0 1 0,1-1 0,-1 0 0,0 1 0,0-1 0,1 0 0,-1 0 0,0 1 0,1-1 0,-1 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1-1 0,19-19 0,16-37 0,-3-21 0,-26 59 0,0 0 0,2 0 0,19-32 0,-28 51 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 1 0,0-1 0,0 0 0,0 0 0,4 15 0,-4 20 0,-15 85 0,7-65 0,-2 68 0,10-123 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,12-11 0,10-18 0,17-22-1365,3-5-5461</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7547.78">3398 14 24575,'7'0'0,"12"2"0,12 4 0,11 3 0,7-1 0,2-1 0,0-1 0,-6-3 0,-11-1-8191</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7921.7">3677 84 24575,'0'2'0,"-2"13"0,-2 16 0,1 21 0,1 9 0,0 6 0,1 1 0,1-6 0,0-4 0,0-8 0,0-11-8191</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8388.11">3886 0 24575,'2'0'0,"8"10"0,8 12 0,9 17 0,10 18 0,8 14 0,1-1 0,0-2 0,-3-9 0,-9-11 0,-6-10 0,-7-8 0,-5-5 0,-5-7-8191</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8871.79">4248 112 24575,'-5'7'0,"-6"9"0,-8 10 0,-9 12 0,-3 13 0,-2 1 0,2-2 0,3-1 0,2-6 0,5-4 0,2-9 0,5-10-8191</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">153 672 24575,'191'11'0,"-43"-1"0,1495-45 0,-875-2 0,-1 55 0,-675-9 0,-11-1 0,156-5 0,-220-6 0,-1 0 0,0-1 0,0-1 0,0 0 0,24-13 0,27-8 0,12 4 0,2 2 0,82-9 0,-161 29 0,0 0 0,1-1 0,-1 1 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 1 0,-1-1 0,0 1 0,1 0 0,-1-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,-1-1 0,1 1 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 3 0,1 8 0,0 0 0,-1 1 0,-1-1 0,0 1 0,-2 14 0,0 2 0,-149 1704 0,11-531 0,130-1040 0,-4 389 0,19-448 0,5 168 0,-11 133 0,1-400-114,0-4 58,1 0-1,-1 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 1,-1 0-1,1-1 0,0 1 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1-1 1,0 1-1,-1 0 0,1-1 0,-2 2 0,-4-1-6769</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1865.6">28 645 24575,'-4'481'0,"3"303"0,-8 167 0,14 326 0,6-542 0,-13-481 0,-12-59 0,0-33 0,14-160 0,0 0 0,0 0 0,0 0 0,0 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,1-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,1-1 0,-1 1 0,1-1 0,0 1 0,-1-1 0,1 0 0,0 1 0,0-1 0,-1 0 0,1-1 0,0 1 0,0-1 0,0 1 0,0 0 0,5 0 0,6 1 0,1 0 0,0-1 0,0-1 0,18-1 0,1 0 0,1456-4 0,-1442 5 0,2-2 0,-1-3 0,70-15 0,-74 11 0,2 2 0,1 1 0,-1 3 0,1 1 0,49 6 0,228 40 0,-1-2 0,-278-40 0,0-2 0,76-12 0,88-24 0,-141 22 0,235-70 0,-184 47 0,-69 23 0,1 3 0,79-8 0,106 6 0,-156 10 0,-71 3-170,0-1-1,0 0 0,0 0 1,0 0-1,0-1 0,-1-1 1,11-2-1,4-9-6655</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2892.01">181 699 24575,'29'-33'0,"-1"-1"0,-2-2 0,-1-1 0,29-58 0,-14 25 0,33-74 0,12-17 0,-85 161 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,1 1 0,-1-1 0,0 1 0,0 0 0,1-1 0,-1 1 0,0-1 0,1 1 0,-1 0 0,0-1 0,1 1 0,-1 0 0,0-1 0,1 1 0,-1 0 0,1 0 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,8 17 0,-3 34 0,-6-50 0,2 330 0,-3-199 0,1-124-113,0-5 16,0-1 1,0 1 0,0 0-1,0-1 1,0 1 0,0 0 0,-1-2-1,1 2 1,-1-1 0,0 1-1,0-1 1,-1 3 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3233.91">389 444 24575,'2'0'0,"6"-3"0,3 0 0,3 0 0,1 1 0,1 0 0,2 1 0,2 1 0,6 0 0,5-3 0,2 0 0,-2-1 0,-7-2-8191</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3903.64">791 188 24575,'2'45'0,"10"57"0,2 30 0,-12-102 0,-1-9 0,-1 0 0,-3 33 0,3-53 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1-1 0,1 1 0,-1 0 0,0 0 0,1-1 0,-1 1 0,0-1 0,0 0 0,1 1 0,-1-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,1 0 0,-1-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,1 0 0,-1-1 0,0 0 0,0 0 0,-4-3 0,0 0 0,0 0 0,0 0 0,1-1 0,0 1 0,0 0 0,-6-12 0,8 14 4,1-1 0,-1 1-1,1 0 1,0 0-1,0-1 1,0 0 0,0 1-1,1-1 1,-1 0 0,1 0-1,0 1 1,-1-1-1,1 1 1,1-1 0,-1 0-1,0 1 1,1-1 0,-1 0-1,1 0 1,0 1-1,0-1 1,0 0 0,0 2-1,0-2 1,1 1 0,-1 0-1,1-1 1,-1 1-1,1 0 1,0 0 0,0 0-1,4-3 1,0 1-128,0 2 0,0-2 1,1 1-1,-1 1 0,1-1 0,-1 1 1,1 1-1,0-1 0,0 1 0,0 0 1,14 0-1,6 1-6702</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4415.61">958 349 24575,'29'-5'0,"-25"3"0,1 1 0,-1 0 0,1 1 0,0-1 0,-1 1 0,9 0 0,-11 0 0,-1 0 0,0 1 0,0-1 0,1 0 0,-1 0 0,0 1 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 0 0,0 0 0,0 0 0,1 1 0,-1 1 0,1 14 0,-1 1 0,-1 1 0,0-1 0,-2 0 0,0 1 0,-1-2 0,-7 19 0,-2 17 0,12-51 0,1-1 0,-1 0 0,1 1 0,0 0 0,-1 0 0,1 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,1 0 0,-1-1 0,1 1 0,-1 0 0,1 0 0,-1-2 0,1 2 0,0 0 0,0-1 0,0 1 0,1 1 0,0-2 0,-1 0 0,1 0 0,0 0 0,-1-1 0,1 1 0,-1-1 0,1 1 0,0-1 0,0 0 0,-1 1 0,1-1 0,0 0 0,0 0 0,-1 0 0,1-1 0,0 1 0,-1 0 0,4-1 0,5-2 0,0-1 0,0 0 0,0 0 0,0 0 0,-1-1 0,10-7 0,9-8-682,42-42-1,-47 39-6143</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4745.51">1097 510 24575,'2'0'0,"3"0"0,4 0 0,2 0 0,2-2 0,3-3 0,5-1 0,3-1 0,-1-3 0,-2 0 0,-5-1-8191</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5356.11">1402 376 24575,'-3'75'0,"1"-47"0,1 1 0,1 0 0,9 53 0,-9-82 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,1 1 0,-1-1 0,0 0 0,0 1 0,0-1 0,1 0 0,-1 0 0,0 1 0,0-1 0,1 0 0,-1 0 0,0 1 0,1-1 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,0 0 0,12-16 0,9-27 0,45-169 0,-55 188 0,-12 24 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 1 0,0-1 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,2 47 0,-13 132 0,14-164-37,3-13 129,10-19-1512,2-8-5406</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5838.35">1666 376 24575,'-1'45'0,"0"-19"0,1-1 0,1 0 0,8 43 0,-2-53 0,1-20 0,8-26 0,28-88 0,-25 64 0,2 2 0,51-93 0,-71 144 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,1 0 0,-1 1 0,0-1 0,1 1 0,0-1 0,-1 1 0,1 0 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 0 0,2-1 0,-2 2 0,-1 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,1 0 0,-1 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,-1-1 0,1 1 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 1 0,5 10 0,0 0 0,-1 1 0,-1-1 0,4 18 0,-3-11 0,1 1 0,6 21 0,2 1 0,1-2 0,2 0 0,41 68 0,-44-93-1365,-2-6-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6770.58">2247 296 24575,'-2'-1'0,"-1"1"0,0 0 0,0 0 0,1 0 0,-1 0 0,0 1 0,0-1 0,1 1 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 1 0,0-1 0,1 1 0,-2-1 0,-2 3 0,3 0 0,0 0 0,0 1 0,0-1 0,0 1 0,1-1 0,0 0 0,0 1 0,0-1 0,1 1 0,-1 8 0,-2 42 0,5 68 0,-2-123 0,0 1 0,-1-1 0,1 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 1 0,1-1 0,-1 0 0,0 1 0,0-1 0,0 0 0,0 1 0,1-1 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 1 0,1-1 0,-1 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,0 1 0,1-1 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1-1 0,18-18 0,17-36 0,-3-20 0,-26 57 0,0-1 0,2 1 0,19-31 0,-28 49 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 1 0,0-1 0,0 0 0,0 0 0,4 14 0,-4 20 0,-15 82 0,7-63 0,-2 65 0,10-118 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,12-10 0,10-18 0,17-21-1365,3-5-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7547.78">3385 14 24575,'7'0'0,"12"1"0,12 5 0,11 3 0,6-1 0,3-2 0,0 0 0,-6-3 0,-11-1-8191</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7921.7">3663 81 24575,'0'2'0,"-2"12"0,-2 16 0,1 20 0,1 9 0,0 6 0,1 1 0,1-7 0,0-3 0,0-8 0,0-10-8191</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8388.11">3871 0 24575,'2'0'0,"8"10"0,8 11 0,9 16 0,10 18 0,8 14 0,0-2 0,1-1 0,-3-9 0,-9-11 0,-6-9 0,-7-8 0,-5-5 0,-5-7-8191</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8871.79">4232 108 24575,'-5'7'0,"-6"8"0,-8 10 0,-9 12 0,-3 12 0,-2 1 0,2-1 0,3-2 0,2-6 0,6-3 0,1-9 0,5-10-8191</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -1483,9 +1484,9 @@
       <inkml:brushProperty name="height" value="0.035" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">289 133 24575,'85'-8'0,"-12"0"0,1072-7 0,-747 18 0,-148-1 0,390-12 0,-308-32 0,-171 19 0,-83 11 0,71-6 0,-145 17 0,1 1 0,-1 0 0,0 0 0,0 0 0,1 1 0,-1-1 0,0 1 0,0 0 0,0 0 0,0 1 0,0-1 0,7 5 0,-9-4 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 1 0,1-1 0,-1 1 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 4 0,-1 65 0,-19 137 0,4-84 0,-15 379 0,31-488 0,-3 37 0,2-50 0,0-1 0,0 0 0,1 1 0,-2-1 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0-1 0,0 1 0,1-1 0,-1 1 0,-1-1 0,1 0 0,-4 2 0,-7 2 0,-1-2 0,-1 1 0,1-2 0,0 0 0,-1-1 0,-26 0 0,22-1 0,-777-47 0,618 30 0,-66-7 0,-420-28 0,378 66 0,87 0 0,110-12 0,-354 0 0,390-8 0,-77-17 0,21 2 0,-104-1 0,212 22 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0-1 0,0 1 0,0 0 0,0-1 0,-1 1 0,1-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,0 0 0,-1 0 0,1-1 0,0 1 0,0 0 0,-1 0 0,1 0 0,0-1 0,0 1 0,0 0 0,1 0 0,-1 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,0 0 0,1 0 0,-1 0 0,2-1 0,3-11 0,0 1 0,1-1 0,12-17 0,-9 16 0,20-38 0,-1-1 0,-4-1 0,-1-1 0,-3-1 0,-2 0 0,-3-2 0,-3 0 0,9-95 0,-20 149 0,-1 0 0,1-1 0,-1 1 0,0 0 0,0-1 0,-1 1 0,1-1 0,-1 1 0,0 0 0,0-1 0,0 1 0,-1 0 0,0 0 0,1 0 0,-1 0 0,-1 0 0,-3-5 0,5 8 0,1 1 0,0-1 0,-1 1 0,1-1 0,0 1 0,-1 0 0,1-1 0,0 1 0,0-1 0,-1 0 0,1 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,1 1 0,-1-1 0,1 1 0,-1 0 0,0-1 0,1 1 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1-1 0,1 1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1-1 0,2 1 0,37-8 0,-34 7 0,114-10-194,169 4 0,-212 8-783,-23-1-5849</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1821.01">247 1456 24575,'405'30'0,"-205"-10"0,582 15 0,2-37 0,-171-51 0,-395 33 0,-178 19 0,1 2 0,-1 2 0,58 11 0,-96-13 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 1 0,0-1 0,1 1 0,-1-1 0,0 1 0,0-1 0,0 1 0,0 0 0,-1 0 0,1-1 0,0 1 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1-1 0,-1 1 0,0 0 0,0 3 0,-2 59 0,2-54 0,-27 212 0,14-138 0,-5 168 0,18-246 0,-1-1 0,0 1 0,0-1 0,0 1 0,-1-1 0,0 0 0,0 1 0,0-1 0,-1 0 0,1 0 0,-1-1 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 0 0,0 0 0,-1-1 0,1 1 0,-1-1 0,-6 4 0,-12 7 0,-1-2 0,0 0 0,-27 9 0,50-21 0,-33 12 0,-2-2 0,1-1 0,-1-2 0,0-2 0,-63 3 0,-183-19 0,-172-35 0,-322-13 0,729 62 0,0 2 0,-1 1 0,-74 22 0,-42 6 0,0-16 0,-1-7 0,-240-14 0,403 3 0,-1-1 0,1 1 0,0-1 0,-1 1 0,1-1 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0-1 0,0 1 0,0-1 0,0 1 0,1-1 0,-1 0 0,0 1 0,1-1 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1-1 0,1 1 0,-1 0 0,0 0 0,0-1 0,1 1 0,0 0 0,-1-4 0,-1-10 0,1 0 0,0 0 0,3-29 0,0 15 0,40-471 0,-17 279 0,-24 212-98,10-59-1169,-3 50-5559</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3924.67">372 3099 24575,'777'-49'0,"-45"-1"0,47 50 0,-315 2 0,-443-2 0,92 3 0,-101-2 0,0 0 0,1 1 0,-1 1 0,0 0 0,0 1 0,18 8 0,-28-11 0,1 1 0,-1 0 0,1-1 0,-1 1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,0 0 0,0-1 0,0 1 0,-1 0 0,1 0 0,0 0 0,-1 0 0,0 0 0,0-1 0,0 7 0,-2 6 0,0 1 0,0-1 0,-8 25 0,1-7 0,-11 97 0,6 0 0,4 192 0,7-143 0,3-177 0,0 0 0,0 1 0,-1-1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 1 0,0-1 0,0-1 0,0 1 0,0 0 0,-1 0 0,1 0 0,-1-1 0,1 1 0,-1 0 0,0-1 0,-3 3 0,-44 17 0,20-10 0,-36 17 0,-1-2 0,-2-3 0,0-3 0,-2-3 0,-90 10 0,-763-2 0,669-28 0,-471 1 0,718 2 0,1-1 0,-1 0 0,1-1 0,-1 1 0,1-1 0,0 0 0,0-1 0,0 0 0,0 0 0,0 0 0,-5-5 0,-63-50 0,41 30 0,-8-9 0,1-1 0,1-2 0,-62-86 0,95 118 0,1-1 0,-2 1 0,1 0 0,-1 1 0,0-1 0,-1 1 0,0 1 0,0 0 0,0 0 0,-1 0 0,0 1 0,0 0 0,-14-5 0,21 9 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0-1 0,1 1 0,-1-1 0,1 1 0,-1-1 0,1 0 0,0 1 0,-1-1 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1-4 0,-4-55 0,5 45 0,2-37 0,1 0 0,15-69 0,3-34 0,-20 147-151,-1-1-1,0 0 0,0 1 0,-1-1 1,0 1-1,-1-1 0,0 1 1,-6-18-1,3 16-6674</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">288 128 24575,'84'-7'0,"-11"-1"0,1066-7 0,-743 18 0,-147-1 0,388-11 0,-307-32 0,-169 19 0,-84 10 0,71-5 0,-144 16 0,1 1 0,-1 0 0,0 0 0,0 0 0,1 1 0,-1-1 0,0 1 0,0 0 0,0 0 0,0 1 0,0-1 0,7 5 0,-9-5 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 1 0,1-1 0,-1 1 0,0 0 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 4 0,-1 62 0,-19 133 0,4-82 0,-15 367 0,31-472 0,-3 36 0,2-48 0,0-1 0,0 0 0,1 1 0,-2-1 0,1 0 0,0 0 0,0 0 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,0-1 0,0 1 0,1-1 0,-1 1 0,-1-1 0,1 0 0,-3 2 0,-8 2 0,-1-2 0,-1 0 0,1-1 0,0 0 0,-1-1 0,-26 0 0,22-1 0,-773-45 0,615 29 0,-66-8 0,-418-26 0,377 64 0,86-1 0,109-11 0,-352 0 0,389-8 0,-78-16 0,22 2 0,-104-1 0,211 21 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0-1 0,0 1 0,0 0 0,0-1 0,-1 1 0,1-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,0 0 0,-1 0 0,1-1 0,0 1 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,0 0 0,1 0 0,-1 0 0,2-1 0,3-10 0,0 0 0,1-1 0,12-16 0,-9 16 0,20-37 0,-2-1 0,-3-1 0,-1-2 0,-3 0 0,-2 0 0,-3-2 0,-3 0 0,9-91 0,-20 143 0,-1 0 0,1-1 0,-1 1 0,0 1 0,0-2 0,-1 1 0,1-1 0,-1 1 0,0 0 0,0-1 0,0 2 0,-1-1 0,0 0 0,1 0 0,-1 0 0,-1 0 0,-3-4 0,5 7 0,1 1 0,0-1 0,-1 1 0,1-1 0,0 1 0,-1 0 0,1-1 0,0 1 0,0-1 0,-1 0 0,1 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,0 1 0,1-1 0,-1 1 0,0-1 0,1 1 0,-1-1 0,1 1 0,-1 0 0,0-1 0,1 1 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1-1 0,1 1 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1-1 0,2 1 0,37-7 0,-34 6 0,113-10-194,169 4 0,-212 8-783,-22-1-5849</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1821.01">246 1405 24575,'403'29'0,"-204"-10"0,579 15 0,2-36 0,-170-49 0,-393 32 0,-177 18 0,1 2 0,-1 1 0,57 12 0,-95-13 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 1 0,0-1 0,1 1 0,-1-1 0,0 0 0,0 0 0,0 1 0,0 0 0,-1 0 0,1-1 0,0 1 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1-1 0,-1 1 0,0 0 0,0 2 0,-2 58 0,2-52 0,-27 204 0,14-133 0,-5 162 0,18-237 0,-1-1 0,0 1 0,0-1 0,0 0 0,-1 0 0,0 0 0,0 1 0,0-1 0,-1-1 0,1 1 0,-1-1 0,-1 1 0,1-1 0,-1 1 0,1-2 0,-1 1 0,0 0 0,-1-1 0,1 1 0,-1-1 0,-5 4 0,-13 6 0,-1-1 0,0-1 0,-27 9 0,50-20 0,-33 12 0,-2-2 0,2-2 0,-2-1 0,0-2 0,-62 3 0,-183-19 0,-171-33 0,-320-13 0,725 60 0,0 1 0,0 2 0,-75 21 0,-41 6 0,0-16 0,-1-6 0,-239-14 0,401 3 0,-1-1 0,1 1 0,0-1 0,-1 1 0,1-1 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,1-1 0,-1 0 0,0 1 0,1-1 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1-1 0,1 1 0,-1 1 0,0-1 0,0-1 0,1 1 0,0 0 0,-1-4 0,-1-9 0,1-1 0,0 1 0,3-29 0,0 15 0,40-454 0,-18 269 0,-23 204-98,10-56-1169,-3 47-5559</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3924.67">370 2990 24575,'773'-47'0,"-44"-1"0,46 48 0,-313 2 0,-441-2 0,91 3 0,-100-2 0,0 0 0,1 0 0,-1 2 0,0 0 0,0 1 0,18 8 0,-28-11 0,1 1 0,-1 0 0,1-2 0,-1 2 0,0 0 0,0 0 0,-1 1 0,1-1 0,0 0 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,0-1 0,0 0 0,0 1 0,-1 0 0,1 0 0,0 0 0,-1 0 0,0 0 0,0-1 0,0 6 0,-2 7 0,0 0 0,0 0 0,-8 23 0,2-6 0,-12 94 0,6-1 0,4 186 0,7-139 0,3-170 0,0 0 0,0 1 0,-1-1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0 1 0,0-1 0,0-1 0,0 1 0,0-1 0,-1 1 0,1 0 0,-1-1 0,1 1 0,-1 0 0,0-1 0,-3 3 0,-44 16 0,20-9 0,-35 16 0,-2-2 0,-2-3 0,1-3 0,-3-2 0,-89 9 0,-760-2 0,666-27 0,-468 1 0,714 2 0,1-1 0,-1 0 0,1-1 0,-1 1 0,1-1 0,0 1 0,0-2 0,0 0 0,0 0 0,0 0 0,-5-5 0,-62-48 0,40 29 0,-8-8 0,1-2 0,1-2 0,-61-82 0,94 113 0,1-1 0,-2 2 0,1-1 0,-1 1 0,0-1 0,-1 2 0,0 0 0,0 0 0,0 0 0,-1 0 0,0 2 0,0-1 0,-13-5 0,20 9 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0-1 0,1 1 0,-1 0 0,1 0 0,-1-1 0,1 0 0,0 1 0,-1-1 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,-1-3 0,-4-54 0,5 43 0,2-35 0,1 0 0,15-67 0,3-32 0,-20 141-151,-1-1-1,0 1 0,0 0 0,-1-1 1,0 2-1,-1-2 0,0 1 1,-6-17-1,3 16-6674</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -1512,7 +1513,7 @@
       <inkml:brushProperty name="height" value="0.035" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1581 2731 24489,'-1'107'0,"0"0"0,-2-1 0,-2 1 0,0-2 0,-2 0 0,-1-1 0,-1-2 0,-1 0 0,-1-3 0,-2 0 0,0-3 0,-2-1 0,0-3 0,-2-2 0,-1-2 0,-1-2 0,0-3 0,-2-3 0,-1-3 0,0-2 0,-1-4 0,-1-3 0,-1-3 0,0-4 0,-1-3 0,-1-4 0,-1-4 0,0-3 0,0-4 0,-1-4 0,0-4 0,-1-4 0,0-3 0,0-5 0,-1-5 0,0-3 0,1-4 0,-1-5 0,0-4 0,-1-4 0,1-4 0,1-5 0,-1-4 0,0-3 0,1-5 0,0-5 0,0-3 0,1-4 0,0-4 0,1-4 0,0-4 0,0-3 0,1-4 0,1-4 0,1-3 0,0-4 0,1-3 0,1-3 0,1-4 0,0-2 0,1-3 0,2-3 0,0-3 0,1-2 0,1-2 0,2-2 0,0-3 0,2-1 0,0-3 0,2 0 0,1-3 0,1 0 0,1-2 0,1-1 0,2 0 0,0-2 0,2 1 0,2-1 0,0 0 0,2-1 0,0 1 0,2 1 0,2-1 0,0 2 0,2 0 0,1 1 0,1 2 0,1 0 0,1 3 0,2 0 0,0 3 0,2 1 0,0 3 0,2 2 0,1 2 0,1 2 0,0 3 0,2 3 0,1 3 0,0 2 0,1 4 0,1 3 0,1 3 0,0 4 0,1 3 0,1 4 0,1 4 0,0 3 0,0 4 0,1 4 0,0 4 0,1 4 0,0 3 0,0 5 0,1 5 0,0 3 0,-1 4 0,1 5 0,1 4 0,-1 4 0,0 4 0,-1 5 0,1 4 0,0 3 0,-1 5 0,0 5 0,0 3 0,-1 4 0,0 4 0,-1 4 0,0 4 0,0 3 0,-1 4 0,-1 4 0,-1 3 0,0 4 0,-1 3 0,-1 3 0,-1 4 0,0 2 0,-1 3 0,-2 3 0,0 3 0,-1 2 0,-1 2 0,-2 2 0,0 3 0,-2 1 0,0 3 0,-2 0 0,-1 3 0,-1 0 0,-1 2 0,-1 1 0,-2 0 0,0 2 0,-2-1 0,-2 1 0,0 1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1753 2639 24489,'-1'103'0,"0"0"0,-3 0 0,-1 0 0,-1-2 0,-2 1 0,0-2 0,-2-1 0,-1-1 0,-2-2 0,-1 0 0,0-3 0,-3-2 0,0-2 0,-2-2 0,-1-2 0,-1-2 0,0-3 0,-2-2 0,-1-4 0,-1-1 0,0-5 0,-2-2 0,-1-3 0,1-4 0,-2-3 0,-1-4 0,-1-4 0,0-2 0,0-5 0,-1-3 0,0-4 0,-2-4 0,1-3 0,0-5 0,-2-5 0,1-2 0,1-5 0,-2-4 0,1-4 0,-1-4 0,0-4 0,2-4 0,-1-5 0,-1-2 0,2-5 0,0-5 0,-1-3 0,2-4 0,0-4 0,1-3 0,0-5 0,0-2 0,1-4 0,1-4 0,1-3 0,1-4 0,0-3 0,2-2 0,0-5 0,1-1 0,1-4 0,1-2 0,1-3 0,1-2 0,2-2 0,1-2 0,0-2 0,3-2 0,0-3 0,1 0 0,2-2 0,1-1 0,1-1 0,2-2 0,1 1 0,1-2 0,1 0 0,3 0 0,0 0 0,2-2 0,0 2 0,3 0 0,1 0 0,1 2 0,1-1 0,2 2 0,1 1 0,1 1 0,2 2 0,1 0 0,0 3 0,3 2 0,0 2 0,1 2 0,2 2 0,1 2 0,1 3 0,1 2 0,1 4 0,1 1 0,0 5 0,2 2 0,0 3 0,1 4 0,1 3 0,1 4 0,1 4 0,0 2 0,0 5 0,1 3 0,0 4 0,2 5 0,-1 1 0,0 6 0,2 5 0,-1 2 0,-1 5 0,2 4 0,0 4 0,-1 4 0,1 4 0,-2 4 0,1 5 0,1 2 0,-2 5 0,0 6 0,1 1 0,-2 5 0,0 4 0,-1 3 0,0 5 0,0 2 0,-1 4 0,-1 4 0,-2 3 0,1 4 0,-1 3 0,-2 2 0,0 5 0,-1 1 0,-1 4 0,-2 2 0,0 3 0,-1 2 0,-1 2 0,-2 2 0,0 2 0,-3 2 0,0 3 0,-1 0 0,-2 2 0,-1 1 0,-2 1 0,0 2 0,-2-1 0,-1 2 0,-1 0 0,-3 0 0,0 2 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -1815,22 +1816,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAD368F1-ECC4-4624-8159-F51FC7481AF2}">
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="5"/>
+    <col min="1" max="1" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.1796875" customWidth="1"/>
+    <col min="8" max="8" width="18.1796875" style="5" customWidth="1"/>
+    <col min="10" max="10" width="11.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7265625" customWidth="1"/>
+    <col min="13" max="13" width="11" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
@@ -1844,7 +1845,7 @@
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -1888,7 +1889,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1000</v>
       </c>
@@ -1902,22 +1903,23 @@
         <v>10</v>
       </c>
       <c r="E3" s="5">
-        <v>13000</v>
+        <v>3500</v>
       </c>
       <c r="F3">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G3" s="5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H3" s="5">
-        <v>0.5</v>
+        <f>J3/I3</f>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>100</v>
       </c>
       <c r="J3" s="5">
-        <v>16000</v>
+        <v>100</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -1928,14 +1930,14 @@
       </c>
       <c r="M3" s="5">
         <f>J3/K3</f>
-        <v>5333.333333333333</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="N3" s="9">
         <f>M3/G3</f>
-        <v>266.66666666666663</v>
+        <v>1.3333333333333335</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1001</v>
       </c>
@@ -1948,8 +1950,12 @@
       <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="M4" s="10">
+        <f>100/E3</f>
+        <v>2.8571428571428571E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1002</v>
       </c>
@@ -1963,7 +1969,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1003</v>
       </c>
@@ -1977,7 +1983,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1004</v>
       </c>
